--- a/dump-enhancements.xlsx
+++ b/dump-enhancements.xlsx
@@ -555,3283 +555,3283 @@
     <row r="2" ht="15" customHeight="1" s="7">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[enh] 2:1</t>
+          <t>[enh] 27:22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[enh] 2:2</t>
+          <t>[enh] 3:22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[enh] 2:3</t>
+          <t>[enh] 31:62</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[enh] 2:4</t>
+          <t>[enh] 77:80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[enh] 2:5</t>
+          <t>[enh] 49:87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[enh] 2:6</t>
+          <t>[enh] 76:14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[enh] 2:7</t>
+          <t>[enh] 64:92</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[enh] 2:8</t>
+          <t>[enh] 87:88</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[enh] 2:9</t>
+          <t>[enh] 74:95</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[enh] 2:10</t>
+          <t>[enh] 47:37</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[enh] 2:11</t>
+          <t>[enh] 62:70</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[enh] 2:12</t>
+          <t>[enh] 89:75</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[enh] 2:13</t>
+          <t>[enh] 8:56</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="7">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[enh] 3:1</t>
+          <t>[enh] 80:85</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[enh] 3:2</t>
+          <t>[enh] 14:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[enh] 3:3</t>
+          <t>[enh] 68:12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[enh] 3:4</t>
+          <t>[enh] 83:65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[enh] 3:5</t>
+          <t>[enh] 4:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[enh] 3:6</t>
+          <t>[enh] 26:13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[enh] 3:7</t>
+          <t>[enh] 90:39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[enh] 3:8</t>
+          <t>[enh] 77:29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[enh] 3:9</t>
+          <t>[enh] 23:78</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[enh] 3:10</t>
+          <t>[enh] 95:69</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[enh] 3:11</t>
+          <t>[enh] 67:65</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[enh] 3:12</t>
+          <t>[enh] 9:27</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[enh] 3:13</t>
+          <t>[enh] 56:70</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="7">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[enh] 4:1</t>
+          <t>[enh] 80:19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[enh] 4:2</t>
+          <t>[enh] 59:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[enh] 4:3</t>
+          <t>[enh] 7:6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[enh] 4:4</t>
+          <t>[enh] 21:75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[enh] 4:5</t>
+          <t>[enh] 8:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[enh] 4:6</t>
+          <t>[enh] 38:96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[enh] 4:7</t>
+          <t>[enh] 25:47</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[enh] 4:8</t>
+          <t>[enh] 95:75</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[enh] 4:9</t>
+          <t>[enh] 90:59</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[enh] 4:10</t>
+          <t>[enh] 27:72</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[enh] 4:11</t>
+          <t>[enh] 72:99</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[enh] 4:12</t>
+          <t>[enh] 14:69</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[enh] 4:13</t>
+          <t>[enh] 47:15</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="7">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[enh] 5:1</t>
+          <t>[enh] 87:50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[enh] 5:2</t>
+          <t>[enh] 50:71</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[enh] 5:3</t>
+          <t>[enh] 87:94</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[enh] 5:4</t>
+          <t>[enh] 57:92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[enh] 5:5</t>
+          <t>[enh] 58:92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[enh] 5:6</t>
+          <t>[enh] 28:90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[enh] 5:7</t>
+          <t>[enh] 61:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[enh] 5:8</t>
+          <t>[enh] 13:99</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[enh] 5:9</t>
+          <t>[enh] 70:44</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[enh] 5:10</t>
+          <t>[enh] 47:40</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[enh] 5:11</t>
+          <t>[enh] 14:21</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[enh] 5:12</t>
+          <t>[enh] 99:69</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[enh] 5:13</t>
+          <t>[enh] 29:75</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="7">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[enh] 6:1</t>
+          <t>[enh] 76:79</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[enh] 6:2</t>
+          <t>[enh] 51:81</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[enh] 6:3</t>
+          <t>[enh] 25:55</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[enh] 6:4</t>
+          <t>[enh] 83:9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[enh] 6:5</t>
+          <t>[enh] 72:22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[enh] 6:6</t>
+          <t>[enh] 24:88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[enh] 6:7</t>
+          <t>[enh] 47:70</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[enh] 6:8</t>
+          <t>[enh] 15:38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[enh] 6:9</t>
+          <t>[enh] 42:29</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[enh] 6:10</t>
+          <t>[enh] 48:48</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[enh] 6:11</t>
+          <t>[enh] 97:46</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[enh] 6:12</t>
+          <t>[enh] 78:77</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[enh] 6:13</t>
+          <t>[enh] 9:55</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[enh] 7:1</t>
+          <t>[enh] 63:89</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[enh] 7:2</t>
+          <t>[enh] 67:28</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[enh] 7:3</t>
+          <t>[enh] 88:19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[enh] 7:4</t>
+          <t>[enh] 29:65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[enh] 7:5</t>
+          <t>[enh] 17:60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[enh] 7:6</t>
+          <t>[enh] 32:19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[enh] 7:7</t>
+          <t>[enh] 38:98</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[enh] 7:8</t>
+          <t>[enh] 32:39</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[enh] 7:9</t>
+          <t>[enh] 65:76</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[enh] 7:10</t>
+          <t>[enh] 41:16</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[enh] 7:11</t>
+          <t>[enh] 93:82</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[enh] 7:12</t>
+          <t>[enh] 24:97</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[enh] 7:13</t>
+          <t>[enh] 53:56</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="7">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[enh] 8:1</t>
+          <t>[enh] 22:76</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[enh] 8:2</t>
+          <t>[enh] 88:27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[enh] 8:3</t>
+          <t>[enh] 27:71</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[enh] 8:4</t>
+          <t>[enh] 31:65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[enh] 8:5</t>
+          <t>[enh] 55:72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[enh] 8:6</t>
+          <t>[enh] 40:98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[enh] 8:7</t>
+          <t>[enh] 59:33</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[enh] 8:8</t>
+          <t>[enh] 32:36</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[enh] 8:9</t>
+          <t>[enh] 61:16</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[enh] 8:10</t>
+          <t>[enh] 60:53</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[enh] 8:11</t>
+          <t>[enh] 50:40</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[enh] 8:12</t>
+          <t>[enh] 9:85</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[enh] 8:13</t>
+          <t>[enh] 42:19</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="7">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[enh] 9:1</t>
+          <t>[enh] 80:96</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[enh] 9:2</t>
+          <t>[enh] 37:45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[enh] 9:3</t>
+          <t>[enh] 35:64</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[enh] 9:4</t>
+          <t>[enh] 56:7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[enh] 9:5</t>
+          <t>[enh] 27:10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[enh] 9:6</t>
+          <t>[enh] 51:61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[enh] 9:7</t>
+          <t>[enh] 25:50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[enh] 9:8</t>
+          <t>[enh] 73:83</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[enh] 9:9</t>
+          <t>[enh] 57:16</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[enh] 9:10</t>
+          <t>[enh] 91:88</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[enh] 9:11</t>
+          <t>[enh] 80:78</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[enh] 9:12</t>
+          <t>[enh] 92:45</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[enh] 9:13</t>
+          <t>[enh] 66:88</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="7">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[enh] 10:1</t>
+          <t>[enh] 98:41</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[enh] 10:2</t>
+          <t>[enh] 14:55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[enh] 10:3</t>
+          <t>[enh] 21:90</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[enh] 10:4</t>
+          <t>[enh] 81:7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[enh] 10:5</t>
+          <t>[enh] 99:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[enh] 10:6</t>
+          <t>[enh] 90:85</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[enh] 10:7</t>
+          <t>[enh] 85:77</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[enh] 10:8</t>
+          <t>[enh] 81:65</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[enh] 10:9</t>
+          <t>[enh] 40:13</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[enh] 10:10</t>
+          <t>[enh] 11:79</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[enh] 10:11</t>
+          <t>[enh] 50:38</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[enh] 10:12</t>
+          <t>[enh] 93:51</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[enh] 10:13</t>
+          <t>[enh] 31:78</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="7">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[enh] 11:1</t>
+          <t>[enh] 97:17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[enh] 11:2</t>
+          <t>[enh] 34:75</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[enh] 11:3</t>
+          <t>[enh] 90:59</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[enh] 11:4</t>
+          <t>[enh] 90:95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[enh] 11:5</t>
+          <t>[enh] 58:10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[enh] 11:6</t>
+          <t>[enh] 55:23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[enh] 11:7</t>
+          <t>[enh] 92:52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[enh] 11:8</t>
+          <t>[enh] 79:49</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[enh] 11:9</t>
+          <t>[enh] 89:11</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[enh] 11:10</t>
+          <t>[enh] 19:68</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[enh] 11:11</t>
+          <t>[enh] 64:20</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[enh] 11:12</t>
+          <t>[enh] 94:67</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[enh] 11:13</t>
+          <t>[enh] 34:59</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="7">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[enh] 12:1</t>
+          <t>[enh] 59:79</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[enh] 12:2</t>
+          <t>[enh] 65:66</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[enh] 12:3</t>
+          <t>[enh] 25:87</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[enh] 12:4</t>
+          <t>[enh] 32:77</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[enh] 12:5</t>
+          <t>[enh] 88:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[enh] 12:6</t>
+          <t>[enh] 82:83</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[enh] 12:7</t>
+          <t>[enh] 97:62</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[enh] 12:8</t>
+          <t>[enh] 47:12</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[enh] 12:9</t>
+          <t>[enh] 45:18</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[enh] 12:10</t>
+          <t>[enh] 61:73</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[enh] 12:11</t>
+          <t>[enh] 48:59</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[enh] 12:12</t>
+          <t>[enh] 99:74</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[enh] 12:13</t>
+          <t>[enh] 96:73</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="7">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[enh] 13:1</t>
+          <t>[enh] 16:93</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[enh] 13:2</t>
+          <t>[enh] 43:40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[enh] 13:3</t>
+          <t>[enh] 41:80</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[enh] 13:4</t>
+          <t>[enh] 21:39</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[enh] 13:5</t>
+          <t>[enh] 18:22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[enh] 13:6</t>
+          <t>[enh] 40:53</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[enh] 13:7</t>
+          <t>[enh] 17:79</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[enh] 13:8</t>
+          <t>[enh] 30:76</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[enh] 13:9</t>
+          <t>[enh] 45:78</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[enh] 13:10</t>
+          <t>[enh] 37:24</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[enh] 13:11</t>
+          <t>[enh] 93:55</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[enh] 13:12</t>
+          <t>[enh] 71:63</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[enh] 13:13</t>
+          <t>[enh] 29:40</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="7">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[enh] 14:1</t>
+          <t>[enh] 83:73</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[enh] 14:2</t>
+          <t>[enh] 36:81</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[enh] 14:3</t>
+          <t>[enh] 86:84</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[enh] 14:4</t>
+          <t>[enh] 67:34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[enh] 14:5</t>
+          <t>[enh] 21:67</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[enh] 14:6</t>
+          <t>[enh] 75:36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[enh] 14:7</t>
+          <t>[enh] 89:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[enh] 14:8</t>
+          <t>[enh] 19:84</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[enh] 14:9</t>
+          <t>[enh] 75:36</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[enh] 14:10</t>
+          <t>[enh] 57:99</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[enh] 14:11</t>
+          <t>[enh] 65:78</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[enh] 14:12</t>
+          <t>[enh] 31:86</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[enh] 14:13</t>
+          <t>[enh] 79:92</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="7">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[enh] 15:1</t>
+          <t>[enh] 57:6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[enh] 15:2</t>
+          <t>[enh] 96:29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[enh] 15:3</t>
+          <t>[enh] 47:55</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[enh] 15:4</t>
+          <t>[enh] 73:36</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[enh] 15:5</t>
+          <t>[enh] 19:82</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[enh] 15:6</t>
+          <t>[enh] 65:24</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[enh] 15:7</t>
+          <t>[enh] 15:66</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[enh] 15:8</t>
+          <t>[enh] 71:83</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[enh] 15:9</t>
+          <t>[enh] 90:48</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[enh] 15:10</t>
+          <t>[enh] 82:69</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[enh] 15:11</t>
+          <t>[enh] 87:31</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[enh] 15:12</t>
+          <t>[enh] 62:86</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[enh] 15:13</t>
+          <t>[enh] 52:72</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="7">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[enh] 16:1</t>
+          <t>[enh] 32:70</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[enh] 16:2</t>
+          <t>[enh] 63:15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[enh] 16:3</t>
+          <t>[enh] 20:18</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[enh] 16:4</t>
+          <t>[enh] 25:39</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[enh] 16:5</t>
+          <t>[enh] 50:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[enh] 16:6</t>
+          <t>[enh] 96:24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[enh] 16:7</t>
+          <t>[enh] 36:83</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[enh] 16:8</t>
+          <t>[enh] 38:59</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[enh] 16:9</t>
+          <t>[enh] 50:98</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[enh] 16:10</t>
+          <t>[enh] 70:31</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[enh] 16:11</t>
+          <t>[enh] 93:21</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[enh] 16:12</t>
+          <t>[enh] 51:94</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[enh] 16:13</t>
+          <t>[enh] 55:57</t>
         </is>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="7">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[enh] 17:1</t>
+          <t>[enh] 68:66</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[enh] 17:2</t>
+          <t>[enh] 99:93</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[enh] 17:3</t>
+          <t>[enh] 86:91</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[enh] 17:4</t>
+          <t>[enh] 43:28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[enh] 17:5</t>
+          <t>[enh] 42:93</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[enh] 17:6</t>
+          <t>[enh] 42:72</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[enh] 17:7</t>
+          <t>[enh] 48:22</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[enh] 17:8</t>
+          <t>[enh] 93:97</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[enh] 17:9</t>
+          <t>[enh] 97:85</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[enh] 17:10</t>
+          <t>[enh] 36:21</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[enh] 17:11</t>
+          <t>[enh] 44:30</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[enh] 17:12</t>
+          <t>[enh] 91:28</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[enh] 17:13</t>
+          <t>[enh] 61:75</t>
         </is>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="7">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[enh] 18:1</t>
+          <t>[enh] 29:57</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[enh] 18:2</t>
+          <t>[enh] 27:55</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[enh] 18:3</t>
+          <t>[enh] 21:90</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[enh] 18:4</t>
+          <t>[enh] 74:23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[enh] 18:5</t>
+          <t>[enh] 63:88</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[enh] 18:6</t>
+          <t>[enh] 37:26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[enh] 18:7</t>
+          <t>[enh] 22:82</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[enh] 18:8</t>
+          <t>[enh] 80:55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[enh] 18:9</t>
+          <t>[enh] 69:36</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[enh] 18:10</t>
+          <t>[enh] 89:12</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[enh] 18:11</t>
+          <t>[enh] 93:83</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[enh] 18:12</t>
+          <t>[enh] 88:63</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[enh] 18:13</t>
+          <t>[enh] 68:66</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="7">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[enh] 19:1</t>
+          <t>[enh] 71:86</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[enh] 19:2</t>
+          <t>[enh] 97:69</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[enh] 19:3</t>
+          <t>[enh] 82:43</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[enh] 19:4</t>
+          <t>[enh] 35:40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[enh] 19:5</t>
+          <t>[enh] 94:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[enh] 19:6</t>
+          <t>[enh] 32:42</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[enh] 19:7</t>
+          <t>[enh] 48:7</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[enh] 19:8</t>
+          <t>[enh] 63:18</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[enh] 19:9</t>
+          <t>[enh] 52:87</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[enh] 19:10</t>
+          <t>[enh] 95:70</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[enh] 19:11</t>
+          <t>[enh] 83:47</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[enh] 19:12</t>
+          <t>[enh] 65:15</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[enh] 19:13</t>
+          <t>[enh] 42:35</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="7">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[enh] 20:1</t>
+          <t>[enh] 87:75</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[enh] 20:2</t>
+          <t>[enh] 96:4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[enh] 20:3</t>
+          <t>[enh] 38:44</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[enh] 20:4</t>
+          <t>[enh] 52:63</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[enh] 20:5</t>
+          <t>[enh] 76:77</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[enh] 20:6</t>
+          <t>[enh] 91:57</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[enh] 20:7</t>
+          <t>[enh] 65:95</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[enh] 20:8</t>
+          <t>[enh] 94:59</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[enh] 20:9</t>
+          <t>[enh] 26:91</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[enh] 20:10</t>
+          <t>[enh] 51:64</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[enh] 20:11</t>
+          <t>[enh] 37:87</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[enh] 20:12</t>
+          <t>[enh] 58:88</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[enh] 20:13</t>
+          <t>[enh] 41:77</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="7">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[enh] 21:1</t>
+          <t>[enh] 51:17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[enh] 21:2</t>
+          <t>[enh] 79:83</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[enh] 21:3</t>
+          <t>[enh] 45:19</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[enh] 21:4</t>
+          <t>[enh] 28:78</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[enh] 21:5</t>
+          <t>[enh] 24:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[enh] 21:6</t>
+          <t>[enh] 64:79</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[enh] 21:7</t>
+          <t>[enh] 82:10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[enh] 21:8</t>
+          <t>[enh] 66:20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[enh] 21:9</t>
+          <t>[enh] 69:52</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[enh] 21:10</t>
+          <t>[enh] 38:66</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[enh] 21:11</t>
+          <t>[enh] 24:88</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[enh] 21:12</t>
+          <t>[enh] 88:34</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[enh] 21:13</t>
+          <t>[enh] 83:22</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="7">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[enh] 22:1</t>
+          <t>[enh] 92:38</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[enh] 22:2</t>
+          <t>[enh] 30:91</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[enh] 22:3</t>
+          <t>[enh] 51:90</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[enh] 22:4</t>
+          <t>[enh] 84:65</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[enh] 22:5</t>
+          <t>[enh] 50:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[enh] 22:6</t>
+          <t>[enh] 76:89</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[enh] 22:7</t>
+          <t>[enh] 54:52</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[enh] 22:8</t>
+          <t>[enh] 73:28</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[enh] 22:9</t>
+          <t>[enh] 31:55</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[enh] 22:10</t>
+          <t>[enh] 60:74</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[enh] 22:11</t>
+          <t>[enh] 80:69</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[enh] 22:12</t>
+          <t>[enh] 94:95</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[enh] 22:13</t>
+          <t>[enh] 48:29</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="7">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[enh] 23:1</t>
+          <t>[enh] 47:64</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[enh] 23:2</t>
+          <t>[enh] 40:97</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[enh] 23:3</t>
+          <t>[enh] 86:35</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[enh] 23:4</t>
+          <t>[enh] 34:32</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[enh] 23:5</t>
+          <t>[enh] 47:20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[enh] 23:6</t>
+          <t>[enh] 60:27</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[enh] 23:7</t>
+          <t>[enh] 24:88</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[enh] 23:8</t>
+          <t>[enh] 96:60</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[enh] 23:9</t>
+          <t>[enh] 50:47</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[enh] 23:10</t>
+          <t>[enh] 68:40</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[enh] 23:11</t>
+          <t>[enh] 74:56</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[enh] 23:12</t>
+          <t>[enh] 68:85</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[enh] 23:13</t>
+          <t>[enh] 55:29</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="7">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[enh] 24:1</t>
+          <t>[enh] 62:97</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[enh] 24:2</t>
+          <t>[enh] 94:63</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[enh] 24:3</t>
+          <t>[enh] 82:17</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[enh] 24:4</t>
+          <t>[enh] 33:57</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[enh] 24:5</t>
+          <t>[enh] 84:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[enh] 24:6</t>
+          <t>[enh] 76:68</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[enh] 24:7</t>
+          <t>[enh] 40:77</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[enh] 24:8</t>
+          <t>[enh] 37:53</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[enh] 24:9</t>
+          <t>[enh] 60:53</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[enh] 24:10</t>
+          <t>[enh] 75:69</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[enh] 24:11</t>
+          <t>[enh] 93:60</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[enh] 24:12</t>
+          <t>[enh] 85:86</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[enh] 24:13</t>
+          <t>[enh] 47:37</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="7">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[enh] 25:1</t>
+          <t>[enh] 54:53</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[enh] 25:2</t>
+          <t>[enh] 48:8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[enh] 25:3</t>
+          <t>[enh] 68:73</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[enh] 25:4</t>
+          <t>[enh] 35:72</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[enh] 25:5</t>
+          <t>[enh] 54:68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[enh] 25:6</t>
+          <t>[enh] 34:43</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[enh] 25:7</t>
+          <t>[enh] 54:15</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[enh] 25:8</t>
+          <t>[enh] 43:91</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[enh] 25:9</t>
+          <t>[enh] 81:73</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[enh] 25:10</t>
+          <t>[enh] 68:24</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[enh] 25:11</t>
+          <t>[enh] 26:57</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[enh] 25:12</t>
+          <t>[enh] 53:71</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[enh] 25:13</t>
+          <t>[enh] 75:64</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="7">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[enh] 26:1</t>
+          <t>[enh] 36:58</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[enh] 26:2</t>
+          <t>[enh] 45:37</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[enh] 26:3</t>
+          <t>[enh] 75:22</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[enh] 26:4</t>
+          <t>[enh] 33:91</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[enh] 26:5</t>
+          <t>[enh] 51:40</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[enh] 26:6</t>
+          <t>[enh] 31:94</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[enh] 26:7</t>
+          <t>[enh] 38:81</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[enh] 26:8</t>
+          <t>[enh] 57:69</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[enh] 26:9</t>
+          <t>[enh] 62:81</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[enh] 26:10</t>
+          <t>[enh] 48:62</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[enh] 26:11</t>
+          <t>[enh] 30:93</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[enh] 26:12</t>
+          <t>[enh] 82:95</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[enh] 26:13</t>
+          <t>[enh] 55:77</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="7">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[enh] 27:1</t>
+          <t>[enh] 64:83</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[enh] 27:2</t>
+          <t>[enh] 31:99</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[enh] 27:3</t>
+          <t>[enh] 36:64</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[enh] 27:4</t>
+          <t>[enh] 58:79</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[enh] 27:5</t>
+          <t>[enh] 50:99</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[enh] 27:6</t>
+          <t>[enh] 52:28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[enh] 27:7</t>
+          <t>[enh] 82:99</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[enh] 27:8</t>
+          <t>[enh] 95:32</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[enh] 27:9</t>
+          <t>[enh] 45:72</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[enh] 27:10</t>
+          <t>[enh] 34:17</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[enh] 27:11</t>
+          <t>[enh] 76:41</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[enh] 27:12</t>
+          <t>[enh] 41:61</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[enh] 27:13</t>
+          <t>[enh] 55:86</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="7">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[enh] 28:1</t>
+          <t>[enh] 44:62</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[enh] 28:2</t>
+          <t>[enh] 63:58</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[enh] 28:3</t>
+          <t>[enh] 45:7</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[enh] 28:4</t>
+          <t>[enh] 69:23</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[enh] 28:5</t>
+          <t>[enh] 29:77</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[enh] 28:6</t>
+          <t>[enh] 40:50</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[enh] 28:7</t>
+          <t>[enh] 74:99</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[enh] 28:8</t>
+          <t>[enh] 76:55</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[enh] 28:9</t>
+          <t>[enh] 39:85</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[enh] 28:10</t>
+          <t>[enh] 67:87</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[enh] 28:11</t>
+          <t>[enh] 51:54</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[enh] 28:12</t>
+          <t>[enh] 86:18</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[enh] 28:13</t>
+          <t>[enh] 60:51</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="7">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[enh] 29:1</t>
+          <t>[enh] 34:54</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[enh] 29:2</t>
+          <t>[enh] 33:44</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[enh] 29:3</t>
+          <t>[enh] 68:49</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[enh] 29:4</t>
+          <t>[enh] 33:25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[enh] 29:5</t>
+          <t>[enh] 66:71</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[enh] 29:6</t>
+          <t>[enh] 52:64</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[enh] 29:7</t>
+          <t>[enh] 57:14</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[enh] 29:8</t>
+          <t>[enh] 95:32</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[enh] 29:9</t>
+          <t>[enh] 51:35</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[enh] 29:10</t>
+          <t>[enh] 45:61</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[enh] 29:11</t>
+          <t>[enh] 58:58</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[enh] 29:12</t>
+          <t>[enh] 97:71</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[enh] 29:13</t>
+          <t>[enh] 76:13</t>
         </is>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="7">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[enh] 30:1</t>
+          <t>[enh] 97:51</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[enh] 30:2</t>
+          <t>[enh] 41:85</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[enh] 30:3</t>
+          <t>[enh] 84:21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[enh] 30:4</t>
+          <t>[enh] 49:28</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[enh] 30:5</t>
+          <t>[enh] 78:85</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[enh] 30:6</t>
+          <t>[enh] 70:65</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[enh] 30:7</t>
+          <t>[enh] 35:88</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[enh] 30:8</t>
+          <t>[enh] 73:63</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[enh] 30:9</t>
+          <t>[enh] 38:17</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[enh] 30:10</t>
+          <t>[enh] 82:47</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[enh] 30:11</t>
+          <t>[enh] 82:20</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[enh] 30:12</t>
+          <t>[enh] 73:58</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[enh] 30:13</t>
+          <t>[enh] 43:14</t>
         </is>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="7">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[enh] 31:1</t>
+          <t>[enh] 45:92</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[enh] 31:2</t>
+          <t>[enh] 72:80</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[enh] 31:3</t>
+          <t>[enh] 73:26</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[enh] 31:4</t>
+          <t>[enh] 56:89</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[enh] 31:5</t>
+          <t>[enh] 40:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[enh] 31:6</t>
+          <t>[enh] 96:75</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[enh] 31:7</t>
+          <t>[enh] 68:20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[enh] 31:8</t>
+          <t>[enh] 66:93</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[enh] 31:9</t>
+          <t>[enh] 95:45</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[enh] 31:10</t>
+          <t>[enh] 76:34</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[enh] 31:11</t>
+          <t>[enh] 55:40</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[enh] 31:12</t>
+          <t>[enh] 72:22</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[enh] 31:13</t>
+          <t>[enh] 73:58</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="7">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[enh] 32:1</t>
+          <t>[enh] 73:96</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[enh] 32:2</t>
+          <t>[enh] 48:48</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[enh] 32:3</t>
+          <t>[enh] 32:79</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[enh] 32:4</t>
+          <t>[enh] 69:82</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[enh] 32:5</t>
+          <t>[enh] 42:82</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[enh] 32:6</t>
+          <t>[enh] 45:66</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[enh] 32:7</t>
+          <t>[enh] 84:76</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[enh] 32:8</t>
+          <t>[enh] 77:12</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[enh] 32:9</t>
+          <t>[enh] 34:98</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[enh] 32:10</t>
+          <t>[enh] 77:81</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[enh] 32:11</t>
+          <t>[enh] 55:83</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>[enh] 32:12</t>
+          <t>[enh] 80:62</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[enh] 32:13</t>
+          <t>[enh] 55:23</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="7">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[enh] 33:1</t>
+          <t>[enh] 93:50</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[enh] 33:2</t>
+          <t>[enh] 51:4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[enh] 33:3</t>
+          <t>[enh] 37:99</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[enh] 33:4</t>
+          <t>[enh] 34:67</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[enh] 33:5</t>
+          <t>[enh] 42:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[enh] 33:6</t>
+          <t>[enh] 36:66</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[enh] 33:7</t>
+          <t>[enh] 46:60</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[enh] 33:8</t>
+          <t>[enh] 45:81</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[enh] 33:9</t>
+          <t>[enh] 79:56</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[enh] 33:10</t>
+          <t>[enh] 69:43</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[enh] 33:11</t>
+          <t>[enh] 46:80</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>[enh] 33:12</t>
+          <t>[enh] 62:72</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[enh] 33:13</t>
+          <t>[enh] 96:70</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="7">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[enh] 34:1</t>
+          <t>[enh] 45:40</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[enh] 34:2</t>
+          <t>[enh] 69:13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[enh] 34:3</t>
+          <t>[enh] 70:94</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[enh] 34:4</t>
+          <t>[enh] 47:21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[enh] 34:5</t>
+          <t>[enh] 75:39</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[enh] 34:6</t>
+          <t>[enh] 50:58</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[enh] 34:7</t>
+          <t>[enh] 41:54</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[enh] 34:8</t>
+          <t>[enh] 38:62</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[enh] 34:9</t>
+          <t>[enh] 54:19</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[enh] 34:10</t>
+          <t>[enh] 95:74</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>[enh] 34:11</t>
+          <t>[enh] 65:37</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>[enh] 34:12</t>
+          <t>[enh] 48:37</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[enh] 34:13</t>
+          <t>[enh] 45:83</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="7">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[enh] 35:1</t>
+          <t>[enh] 70:58</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[enh] 35:2</t>
+          <t>[enh] 41:22</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[enh] 35:3</t>
+          <t>[enh] 56:48</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[enh] 35:4</t>
+          <t>[enh] 42:71</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[enh] 35:5</t>
+          <t>[enh] 84:85</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[enh] 35:6</t>
+          <t>[enh] 81:14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[enh] 35:7</t>
+          <t>[enh] 42:59</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[enh] 35:8</t>
+          <t>[enh] 80:22</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[enh] 35:9</t>
+          <t>[enh] 51:97</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[enh] 35:10</t>
+          <t>[enh] 52:84</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[enh] 35:11</t>
+          <t>[enh] 58:73</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[enh] 35:12</t>
+          <t>[enh] 42:35</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[enh] 35:13</t>
+          <t>[enh] 83:63</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="7">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[enh] 36:1</t>
+          <t>[enh] 52:77</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[enh] 36:2</t>
+          <t>[enh] 54:50</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[enh] 36:3</t>
+          <t>[enh] 52:13</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[enh] 36:4</t>
+          <t>[enh] 92:82</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[enh] 36:5</t>
+          <t>[enh] 74:89</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[enh] 36:6</t>
+          <t>[enh] 63:68</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[enh] 36:7</t>
+          <t>[enh] 98:9</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[enh] 36:8</t>
+          <t>[enh] 43:97</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[enh] 36:9</t>
+          <t>[enh] 74:19</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[enh] 36:10</t>
+          <t>[enh] 56:43</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[enh] 36:11</t>
+          <t>[enh] 57:50</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>[enh] 36:12</t>
+          <t>[enh] 78:12</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[enh] 36:13</t>
+          <t>[enh] 96:17</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="7">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[enh] 37:1</t>
+          <t>[enh] 85:73</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[enh] 37:2</t>
+          <t>[enh] 92:69</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[enh] 37:3</t>
+          <t>[enh] 55:49</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[enh] 37:4</t>
+          <t>[enh] 73:99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[enh] 37:5</t>
+          <t>[enh] 86:26</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[enh] 37:6</t>
+          <t>[enh] 70:21</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[enh] 37:7</t>
+          <t>[enh] 69:16</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[enh] 37:8</t>
+          <t>[enh] 68:54</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[enh] 37:9</t>
+          <t>[enh] 90:58</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[enh] 37:10</t>
+          <t>[enh] 73:54</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[enh] 37:11</t>
+          <t>[enh] 58:12</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[enh] 37:12</t>
+          <t>[enh] 99:94</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[enh] 37:13</t>
+          <t>[enh] 78:79</t>
         </is>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="7">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[enh] 38:1</t>
+          <t>[enh] 38:18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[enh] 38:2</t>
+          <t>[enh] 47:96</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[enh] 38:3</t>
+          <t>[enh] 92:19</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[enh] 38:4</t>
+          <t>[enh] 54:96</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[enh] 38:5</t>
+          <t>[enh] 58:88</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[enh] 38:6</t>
+          <t>[enh] 58:31</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[enh] 38:7</t>
+          <t>[enh] 76:82</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[enh] 38:8</t>
+          <t>[enh] 72:31</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[enh] 38:9</t>
+          <t>[enh] 46:98</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[enh] 38:10</t>
+          <t>[enh] 93:28</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[enh] 38:11</t>
+          <t>[enh] 56:78</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>[enh] 38:12</t>
+          <t>[enh] 57:48</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[enh] 38:13</t>
+          <t>[enh] 97:24</t>
         </is>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="7">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[enh] 39:1</t>
+          <t>[enh] 91:2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[enh] 39:2</t>
+          <t>[enh] 50:29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[enh] 39:3</t>
+          <t>[enh] 60:57</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[enh] 39:4</t>
+          <t>[enh] 43:86</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[enh] 39:5</t>
+          <t>[enh] 89:17</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[enh] 39:6</t>
+          <t>[enh] 87:86</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[enh] 39:7</t>
+          <t>[enh] 46:98</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[enh] 39:8</t>
+          <t>[enh] 67:8</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[enh] 39:9</t>
+          <t>[enh] 91:21</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[enh] 39:10</t>
+          <t>[enh] 81:83</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[enh] 39:11</t>
+          <t>[enh] 42:25</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>[enh] 39:12</t>
+          <t>[enh] 91:89</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[enh] 39:13</t>
+          <t>[enh] 41:39</t>
         </is>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="7">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[enh] 40:1</t>
+          <t>[enh] 91:83</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[enh] 40:2</t>
+          <t>[enh] 85:64</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[enh] 40:3</t>
+          <t>[enh] 51:74</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[enh] 40:4</t>
+          <t>[enh] 81:24</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[enh] 40:5</t>
+          <t>[enh] 58:97</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[enh] 40:6</t>
+          <t>[enh] 51:21</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[enh] 40:7</t>
+          <t>[enh] 57:46</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[enh] 40:8</t>
+          <t>[enh] 73:36</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[enh] 40:9</t>
+          <t>[enh] 72:82</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[enh] 40:10</t>
+          <t>[enh] 90:76</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[enh] 40:11</t>
+          <t>[enh] 78:47</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>[enh] 40:12</t>
+          <t>[enh] 56:30</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[enh] 40:13</t>
+          <t>[enh] 72:65</t>
         </is>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="7">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[enh] 41:1</t>
+          <t>[enh] 92:58</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[enh] 41:2</t>
+          <t>[enh] 46:40</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[enh] 41:3</t>
+          <t>[enh] 43:61</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[enh] 41:4</t>
+          <t>[enh] 48:99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[enh] 41:5</t>
+          <t>[enh] 72:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[enh] 41:6</t>
+          <t>[enh] 82:70</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[enh] 41:7</t>
+          <t>[enh] 75:65</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[enh] 41:8</t>
+          <t>[enh] 61:27</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[enh] 41:9</t>
+          <t>[enh] 63:63</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[enh] 41:10</t>
+          <t>[enh] 89:85</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[enh] 41:11</t>
+          <t>[enh] 55:53</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>[enh] 41:12</t>
+          <t>[enh] 59:13</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[enh] 41:13</t>
+          <t>[enh] 66:35</t>
         </is>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="7">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[enh] 42:1</t>
+          <t>[enh] 90:46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[enh] 42:2</t>
+          <t>[enh] 56:95</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[enh] 42:3</t>
+          <t>[enh] 95:51</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[enh] 42:4</t>
+          <t>[enh] 43:52</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[enh] 42:5</t>
+          <t>[enh] 80:67</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[enh] 42:6</t>
+          <t>[enh] 76:58</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[enh] 42:7</t>
+          <t>[enh] 82:34</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[enh] 42:8</t>
+          <t>[enh] 73:50</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[enh] 42:9</t>
+          <t>[enh] 50:84</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[enh] 42:10</t>
+          <t>[enh] 75:88</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>[enh] 42:11</t>
+          <t>[enh] 86:13</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>[enh] 42:12</t>
+          <t>[enh] 95:74</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[enh] 42:13</t>
+          <t>[enh] 56:19</t>
         </is>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="7">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[enh] 43:1</t>
+          <t>[enh] 83:19</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[enh] 43:2</t>
+          <t>[enh] 89:82</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[enh] 43:3</t>
+          <t>[enh] 83:44</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[enh] 43:4</t>
+          <t>[enh] 99:70</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[enh] 43:5</t>
+          <t>[enh] 56:34</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[enh] 43:6</t>
+          <t>[enh] 69:17</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[enh] 43:7</t>
+          <t>[enh] 66:89</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[enh] 43:8</t>
+          <t>[enh] 94:79</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[enh] 43:9</t>
+          <t>[enh] 73:48</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[enh] 43:10</t>
+          <t>[enh] 93:44</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>[enh] 43:11</t>
+          <t>[enh] 50:77</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>[enh] 43:12</t>
+          <t>[enh] 52:25</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[enh] 43:13</t>
+          <t>[enh] 58:93</t>
         </is>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="7">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[enh] 44:1</t>
+          <t>[enh] 62:15</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[enh] 44:2</t>
+          <t>[enh] 58:56</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[enh] 44:3</t>
+          <t>[enh] 59:87</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[enh] 44:4</t>
+          <t>[enh] 88:6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[enh] 44:5</t>
+          <t>[enh] 93:59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[enh] 44:6</t>
+          <t>[enh] 70:85</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[enh] 44:7</t>
+          <t>[enh] 60:30</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[enh] 44:8</t>
+          <t>[enh] 68:25</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[enh] 44:9</t>
+          <t>[enh] 44:70</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[enh] 44:10</t>
+          <t>[enh] 78:64</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>[enh] 44:11</t>
+          <t>[enh] 77:11</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>[enh] 44:12</t>
+          <t>[enh] 50:53</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[enh] 44:13</t>
+          <t>[enh] 55:90</t>
         </is>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="7">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[enh] 45:1</t>
+          <t>[enh] 82:42</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[enh] 45:2</t>
+          <t>[enh] 80:40</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[enh] 45:3</t>
+          <t>[enh] 74:10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[enh] 45:4</t>
+          <t>[enh] 72:31</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[enh] 45:5</t>
+          <t>[enh] 74:58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[enh] 45:6</t>
+          <t>[enh] 95:20</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[enh] 45:7</t>
+          <t>[enh] 47:35</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[enh] 45:8</t>
+          <t>[enh] 51:60</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[enh] 45:9</t>
+          <t>[enh] 47:78</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[enh] 45:10</t>
+          <t>[enh] 76:14</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>[enh] 45:11</t>
+          <t>[enh] 67:82</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>[enh] 45:12</t>
+          <t>[enh] 65:68</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[enh] 45:13</t>
+          <t>[enh] 92:81</t>
         </is>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="7">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[enh] 46:1</t>
+          <t>[enh] 68:36</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[enh] 46:2</t>
+          <t>[enh] 93:46</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[enh] 46:3</t>
+          <t>[enh] 47:39</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[enh] 46:4</t>
+          <t>[enh] 51:70</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[enh] 46:5</t>
+          <t>[enh] 79:28</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[enh] 46:6</t>
+          <t>[enh] 57:78</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[enh] 46:7</t>
+          <t>[enh] 51:43</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[enh] 46:8</t>
+          <t>[enh] 98:9</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[enh] 46:9</t>
+          <t>[enh] 59:13</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[enh] 46:10</t>
+          <t>[enh] 58:94</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[enh] 46:11</t>
+          <t>[enh] 63:77</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>[enh] 46:12</t>
+          <t>[enh] 93:77</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[enh] 46:13</t>
+          <t>[enh] 46:98</t>
         </is>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="7">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[enh] 47:1</t>
+          <t>[enh] 48:64</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[enh] 47:2</t>
+          <t>[enh] 61:64</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[enh] 47:3</t>
+          <t>[enh] 97:71</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[enh] 47:4</t>
+          <t>[enh] 99:62</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[enh] 47:5</t>
+          <t>[enh] 55:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[enh] 47:6</t>
+          <t>[enh] 70:52</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[enh] 47:7</t>
+          <t>[enh] 60:79</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[enh] 47:8</t>
+          <t>[enh] 98:58</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[enh] 47:9</t>
+          <t>[enh] 91:78</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[enh] 47:10</t>
+          <t>[enh] 61:74</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[enh] 47:11</t>
+          <t>[enh] 47:72</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>[enh] 47:12</t>
+          <t>[enh] 99:44</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[enh] 47:13</t>
+          <t>[enh] 78:57</t>
         </is>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="7">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[enh] 48:1</t>
+          <t>[enh] 86:61</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[enh] 48:2</t>
+          <t>[enh] 88:23</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[enh] 48:3</t>
+          <t>[enh] 74:78</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[enh] 48:4</t>
+          <t>[enh] 92:33</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[enh] 48:5</t>
+          <t>[enh] 80:83</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[enh] 48:6</t>
+          <t>[enh] 66:23</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[enh] 48:7</t>
+          <t>[enh] 72:79</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[enh] 48:8</t>
+          <t>[enh] 56:83</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[enh] 48:9</t>
+          <t>[enh] 87:84</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[enh] 48:10</t>
+          <t>[enh] 59:16</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[enh] 48:11</t>
+          <t>[enh] 62:56</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>[enh] 48:12</t>
+          <t>[enh] 89:34</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[enh] 48:13</t>
+          <t>[enh] 84:41</t>
         </is>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="7">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[enh] 49:1</t>
+          <t>[enh] 59:11</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[enh] 49:2</t>
+          <t>[enh] 49:95</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[enh] 49:3</t>
+          <t>[enh] 94:59</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[enh] 49:4</t>
+          <t>[enh] 87:70</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[enh] 49:5</t>
+          <t>[enh] 86:21</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[enh] 49:6</t>
+          <t>[enh] 94:65</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[enh] 49:7</t>
+          <t>[enh] 80:38</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[enh] 49:8</t>
+          <t>[enh] 93:72</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[enh] 49:9</t>
+          <t>[enh] 83:32</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[enh] 49:10</t>
+          <t>[enh] 53:20</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[enh] 49:11</t>
+          <t>[enh] 49:59</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>[enh] 49:12</t>
+          <t>[enh] 50:43</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[enh] 49:13</t>
+          <t>[enh] 84:26</t>
         </is>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="7">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[enh] 50:1</t>
+          <t>[enh] 70:7</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[enh] 50:2</t>
+          <t>[enh] 97:20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[enh] 50:3</t>
+          <t>[enh] 76:11</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[enh] 50:4</t>
+          <t>[enh] 95:78</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[enh] 50:5</t>
+          <t>[enh] 78:44</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[enh] 50:6</t>
+          <t>[enh] 91:10</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[enh] 50:7</t>
+          <t>[enh] 81:94</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[enh] 50:8</t>
+          <t>[enh] 95:72</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[enh] 50:9</t>
+          <t>[enh] 71:99</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[enh] 50:10</t>
+          <t>[enh] 56:93</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[enh] 50:11</t>
+          <t>[enh] 90:64</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>[enh] 50:12</t>
+          <t>[enh] 51:56</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[enh] 50:13</t>
+          <t>[enh] 77:23</t>
         </is>
       </c>
     </row>

--- a/dump-enhancements.xlsx
+++ b/dump-enhancements.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hypercare Enhancements" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hypercare Enhancements" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -41,19 +41,19 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="Cantarell"/>
+      <name val="Ubuntu"/>
       <charset val="1"/>
       <family val="0"/>
       <color rgb="FF000000"/>
-      <sz val="12"/>
+      <sz val="11"/>
     </font>
     <font>
-      <name val="Cantarell"/>
+      <name val="Ubuntu"/>
       <charset val="1"/>
       <family val="0"/>
       <b val="1"/>
       <color rgb="FF000000"/>
-      <sz val="12"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,8 +89,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -105,13 +108,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,3812 +482,3824 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="15.43" customWidth="1" style="4" min="1" max="13"/>
-    <col width="8.529999999999999" customWidth="1" style="4" min="14" max="1024"/>
+    <col width="15" customWidth="1" style="5" min="1" max="1"/>
+    <col width="15" customWidth="1" style="5" min="2" max="13"/>
+    <col width="15" customWidth="1" style="6" min="3" max="3"/>
+    <col width="15" customWidth="1" style="6" min="4" max="4"/>
+    <col width="15" customWidth="1" style="6" min="5" max="5"/>
+    <col width="15" customWidth="1" style="6" min="6" max="6"/>
+    <col width="15" customWidth="1" style="6" min="7" max="7"/>
+    <col width="15" customWidth="1" style="6" min="8" max="8"/>
+    <col width="15" customWidth="1" style="6" min="9" max="9"/>
+    <col width="15" customWidth="1" style="6" min="10" max="10"/>
+    <col width="15" customWidth="1" style="6" min="11" max="11"/>
+    <col width="15" customWidth="1" style="6" min="12" max="12"/>
+    <col width="15" customWidth="1" style="6" min="13" max="13"/>
+    <col width="8.529999999999999" customWidth="1" style="5" min="14" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Number</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Opened</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Short description</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Impact</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Urgency</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>Due date</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Opened by </t>
-        </is>
-      </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Opened by</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>Assigned to</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>Requestor</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>Assignment group</t>
         </is>
       </c>
-      <c r="M1" s="6" t="inlineStr">
+      <c r="M1" s="8" t="inlineStr">
         <is>
           <t>Rank</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="7">
+    <row r="2" ht="15" customHeight="1" s="6">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[enh] 27:22</t>
+          <t>[ENH] 386:141</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[enh] 3:22</t>
+          <t>[ENH] 546:824</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[enh] 31:62</t>
+          <t>[ENH] 148:256</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[enh] 77:80</t>
+          <t>[ENH] 720:571</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[enh] 49:87</t>
+          <t>[ENH] 356:410</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[enh] 76:14</t>
+          <t>[ENH] 501:374</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[enh] 64:92</t>
+          <t>[ENH] 772:971</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[enh] 87:88</t>
+          <t>[ENH] 950:908</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[enh] 74:95</t>
+          <t>[ENH] 468:102</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[enh] 47:37</t>
+          <t>[ENH] 260:542</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[enh] 62:70</t>
+          <t>[ENH] 885:497</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[enh] 89:75</t>
+          <t>[ENH] 740:107</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[enh] 8:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="7">
+          <t>[ENH] 805:692</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="6">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[enh] 80:85</t>
+          <t>[ENH] 215:674</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[enh] 14:50</t>
+          <t>[ENH] 837:845</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[enh] 68:12</t>
+          <t>[ENH] 692:669</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[enh] 83:65</t>
+          <t>[ENH] 466:997</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[enh] 4:36</t>
+          <t>[ENH] 846:447</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[enh] 26:13</t>
+          <t>[ENH] 919:711</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[enh] 90:39</t>
+          <t>[ENH] 471:909</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[enh] 77:29</t>
+          <t>[ENH] 125:271</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[enh] 23:78</t>
+          <t>[ENH] 394:177</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[enh] 95:69</t>
+          <t>[ENH] 857:176</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[enh] 67:65</t>
+          <t>[ENH] 927:446</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[enh] 9:27</t>
+          <t>[ENH] 378:530</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[enh] 56:70</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="7">
+          <t>[ENH] 255:994</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="6">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[enh] 80:19</t>
+          <t>[ENH] 229:448</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[enh] 59:50</t>
+          <t>[ENH] 385:629</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[enh] 7:6</t>
+          <t>[ENH] 914:261</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[enh] 21:75</t>
+          <t>[ENH] 408:831</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[enh] 8:30</t>
+          <t>[ENH] 605:139</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[enh] 38:96</t>
+          <t>[ENH] 264:196</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[enh] 25:47</t>
+          <t>[ENH] 901:245</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[enh] 95:75</t>
+          <t>[ENH] 960:576</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[enh] 90:59</t>
+          <t>[ENH] 888:407</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[enh] 27:72</t>
+          <t>[ENH] 914:720</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[enh] 72:99</t>
+          <t>[ENH] 203:838</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[enh] 14:69</t>
+          <t>[ENH] 999:808</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[enh] 47:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="7">
+          <t>[ENH] 114:205</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="6">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[enh] 87:50</t>
+          <t>[ENH] 930:193</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[enh] 50:71</t>
+          <t>[ENH] 901:891</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[enh] 87:94</t>
+          <t>[ENH] 446:265</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[enh] 57:92</t>
+          <t>[ENH] 406:565</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[enh] 58:92</t>
+          <t>[ENH] 807:570</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[enh] 28:90</t>
+          <t>[ENH] 517:609</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[enh] 61:45</t>
+          <t>[ENH] 194:941</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[enh] 13:99</t>
+          <t>[ENH] 625:350</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[enh] 70:44</t>
+          <t>[ENH] 987:332</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[enh] 47:40</t>
+          <t>[ENH] 548:700</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[enh] 14:21</t>
+          <t>[ENH] 926:995</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[enh] 99:69</t>
+          <t>[ENH] 117:898</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[enh] 29:75</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="7">
+          <t>[ENH] 979:762</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[enh] 76:79</t>
+          <t>[ENH] 807:188</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[enh] 51:81</t>
+          <t>[ENH] 644:924</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[enh] 25:55</t>
+          <t>[ENH] 485:967</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[enh] 83:9</t>
+          <t>[ENH] 662:542</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[enh] 72:22</t>
+          <t>[ENH] 724:566</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[enh] 24:88</t>
+          <t>[ENH] 810:159</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[enh] 47:70</t>
+          <t>[ENH] 999:630</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[enh] 15:38</t>
+          <t>[ENH] 520:243</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[enh] 42:29</t>
+          <t>[ENH] 231:564</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[enh] 48:48</t>
+          <t>[ENH] 314:856</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[enh] 97:46</t>
+          <t>[ENH] 876:509</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[enh] 78:77</t>
+          <t>[ENH] 928:496</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[enh] 9:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="7">
+          <t>[ENH] 141:429</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="6">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[enh] 63:89</t>
+          <t>[ENH] 288:713</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[enh] 67:28</t>
+          <t>[ENH] 366:150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[enh] 88:19</t>
+          <t>[ENH] 505:717</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[enh] 29:65</t>
+          <t>[ENH] 918:852</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[enh] 17:60</t>
+          <t>[ENH] 374:148</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[enh] 32:19</t>
+          <t>[ENH] 876:710</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[enh] 38:98</t>
+          <t>[ENH] 875:561</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[enh] 32:39</t>
+          <t>[ENH] 245:421</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[enh] 65:76</t>
+          <t>[ENH] 899:255</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[enh] 41:16</t>
+          <t>[ENH] 692:955</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[enh] 93:82</t>
+          <t>[ENH] 858:644</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[enh] 24:97</t>
+          <t>[ENH] 546:619</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[enh] 53:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="7">
+          <t>[ENH] 703:439</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="6">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[enh] 22:76</t>
+          <t>[ENH] 191:233</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[enh] 88:27</t>
+          <t>[ENH] 966:935</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[enh] 27:71</t>
+          <t>[ENH] 888:109</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[enh] 31:65</t>
+          <t>[ENH] 212:403</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[enh] 55:72</t>
+          <t>[ENH] 717:530</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[enh] 40:98</t>
+          <t>[ENH] 661:111</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[enh] 59:33</t>
+          <t>[ENH] 414:880</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[enh] 32:36</t>
+          <t>[ENH] 392:269</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[enh] 61:16</t>
+          <t>[ENH] 217:942</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[enh] 60:53</t>
+          <t>[ENH] 599:291</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[enh] 50:40</t>
+          <t>[ENH] 476:457</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[enh] 9:85</t>
+          <t>[ENH] 594:882</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[enh] 42:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="7">
+          <t>[ENH] 563:152</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="6">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[enh] 80:96</t>
+          <t>[ENH] 447:481</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[enh] 37:45</t>
+          <t>[ENH] 621:507</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[enh] 35:64</t>
+          <t>[ENH] 204:925</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[enh] 56:7</t>
+          <t>[ENH] 487:806</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[enh] 27:10</t>
+          <t>[ENH] 610:421</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[enh] 51:61</t>
+          <t>[ENH] 739:270</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[enh] 25:50</t>
+          <t>[ENH] 588:825</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[enh] 73:83</t>
+          <t>[ENH] 756:713</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[enh] 57:16</t>
+          <t>[ENH] 740:180</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[enh] 91:88</t>
+          <t>[ENH] 480:431</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[enh] 80:78</t>
+          <t>[ENH] 934:919</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[enh] 92:45</t>
+          <t>[ENH] 866:961</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[enh] 66:88</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="7">
+          <t>[ENH] 933:212</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="6">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[enh] 98:41</t>
+          <t>[ENH] 494:446</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[enh] 14:55</t>
+          <t>[ENH] 738:113</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[enh] 21:90</t>
+          <t>[ENH] 281:372</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[enh] 81:7</t>
+          <t>[ENH] 390:845</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[enh] 99:12</t>
+          <t>[ENH] 520:403</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[enh] 90:85</t>
+          <t>[ENH] 592:162</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[enh] 85:77</t>
+          <t>[ENH] 820:155</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[enh] 81:65</t>
+          <t>[ENH] 148:438</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[enh] 40:13</t>
+          <t>[ENH] 255:789</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[enh] 11:79</t>
+          <t>[ENH] 822:632</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[enh] 50:38</t>
+          <t>[ENH] 861:163</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[enh] 93:51</t>
+          <t>[ENH] 335:512</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[enh] 31:78</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="7">
+          <t>[ENH] 276:429</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="6">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[enh] 97:17</t>
+          <t>[ENH] 431:700</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[enh] 34:75</t>
+          <t>[ENH] 178:888</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[enh] 90:59</t>
+          <t>[ENH] 412:612</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[enh] 90:95</t>
+          <t>[ENH] 770:218</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[enh] 58:10</t>
+          <t>[ENH] 847:124</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[enh] 55:23</t>
+          <t>[ENH] 796:997</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[enh] 92:52</t>
+          <t>[ENH] 739:458</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[enh] 79:49</t>
+          <t>[ENH] 596:364</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[enh] 89:11</t>
+          <t>[ENH] 114:182</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[enh] 19:68</t>
+          <t>[ENH] 960:581</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[enh] 64:20</t>
+          <t>[ENH] 717:506</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[enh] 94:67</t>
+          <t>[ENH] 280:938</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[enh] 34:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="7">
+          <t>[ENH] 211:945</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="6">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[enh] 59:79</t>
+          <t>[ENH] 848:772</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[enh] 65:66</t>
+          <t>[ENH] 409:189</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[enh] 25:87</t>
+          <t>[ENH] 632:605</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[enh] 32:77</t>
+          <t>[ENH] 965:620</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[enh] 88:49</t>
+          <t>[ENH] 874:938</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[enh] 82:83</t>
+          <t>[ENH] 294:405</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[enh] 97:62</t>
+          <t>[ENH] 905:407</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[enh] 47:12</t>
+          <t>[ENH] 136:907</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[enh] 45:18</t>
+          <t>[ENH] 831:167</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[enh] 61:73</t>
+          <t>[ENH] 765:763</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[enh] 48:59</t>
+          <t>[ENH] 284:157</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[enh] 99:74</t>
+          <t>[ENH] 713:279</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[enh] 96:73</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="7">
+          <t>[ENH] 779:649</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="6">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[enh] 16:93</t>
+          <t>[ENH] 410:607</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[enh] 43:40</t>
+          <t>[ENH] 496:586</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[enh] 41:80</t>
+          <t>[ENH] 262:383</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[enh] 21:39</t>
+          <t>[ENH] 714:288</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[enh] 18:22</t>
+          <t>[ENH] 822:439</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[enh] 40:53</t>
+          <t>[ENH] 923:197</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[enh] 17:79</t>
+          <t>[ENH] 542:978</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[enh] 30:76</t>
+          <t>[ENH] 321:698</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[enh] 45:78</t>
+          <t>[ENH] 559:874</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[enh] 37:24</t>
+          <t>[ENH] 100:949</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[enh] 93:55</t>
+          <t>[ENH] 973:721</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[enh] 71:63</t>
+          <t>[ENH] 632:498</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[enh] 29:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="7">
+          <t>[ENH] 528:331</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="6">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[enh] 83:73</t>
+          <t>[ENH] 120:622</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[enh] 36:81</t>
+          <t>[ENH] 968:681</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[enh] 86:84</t>
+          <t>[ENH] 561:892</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[enh] 67:34</t>
+          <t>[ENH] 967:354</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[enh] 21:67</t>
+          <t>[ENH] 221:318</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[enh] 75:36</t>
+          <t>[ENH] 658:696</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[enh] 89:30</t>
+          <t>[ENH] 248:199</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[enh] 19:84</t>
+          <t>[ENH] 897:180</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[enh] 75:36</t>
+          <t>[ENH] 545:388</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[enh] 57:99</t>
+          <t>[ENH] 575:722</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[enh] 65:78</t>
+          <t>[ENH] 697:183</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[enh] 31:86</t>
+          <t>[ENH] 764:750</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[enh] 79:92</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="7">
+          <t>[ENH] 564:462</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[enh] 57:6</t>
+          <t>[ENH] 229:922</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[enh] 96:29</t>
+          <t>[ENH] 368:869</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[enh] 47:55</t>
+          <t>[ENH] 804:379</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[enh] 73:36</t>
+          <t>[ENH] 379:332</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[enh] 19:82</t>
+          <t>[ENH] 414:931</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[enh] 65:24</t>
+          <t>[ENH] 933:541</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[enh] 15:66</t>
+          <t>[ENH] 101:365</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[enh] 71:83</t>
+          <t>[ENH] 652:335</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[enh] 90:48</t>
+          <t>[ENH] 107:978</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[enh] 82:69</t>
+          <t>[ENH] 910:133</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[enh] 87:31</t>
+          <t>[ENH] 298:467</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[enh] 62:86</t>
+          <t>[ENH] 140:674</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[enh] 52:72</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="7">
+          <t>[ENH] 648:536</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="6">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[enh] 32:70</t>
+          <t>[ENH] 233:189</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[enh] 63:15</t>
+          <t>[ENH] 973:214</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[enh] 20:18</t>
+          <t>[ENH] 352:815</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[enh] 25:39</t>
+          <t>[ENH] 973:630</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[enh] 50:40</t>
+          <t>[ENH] 847:888</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[enh] 96:24</t>
+          <t>[ENH] 128:834</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[enh] 36:83</t>
+          <t>[ENH] 244:403</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[enh] 38:59</t>
+          <t>[ENH] 314:935</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[enh] 50:98</t>
+          <t>[ENH] 833:884</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[enh] 70:31</t>
+          <t>[ENH] 287:746</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[enh] 93:21</t>
+          <t>[ENH] 607:216</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[enh] 51:94</t>
+          <t>[ENH] 714:857</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[enh] 55:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="7">
+          <t>[ENH] 732:266</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="6">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[enh] 68:66</t>
+          <t>[ENH] 644:192</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[enh] 99:93</t>
+          <t>[ENH] 134:438</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[enh] 86:91</t>
+          <t>[ENH] 326:369</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[enh] 43:28</t>
+          <t>[ENH] 341:894</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[enh] 42:93</t>
+          <t>[ENH] 497:931</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[enh] 42:72</t>
+          <t>[ENH] 297:823</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[enh] 48:22</t>
+          <t>[ENH] 106:736</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[enh] 93:97</t>
+          <t>[ENH] 504:624</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[enh] 97:85</t>
+          <t>[ENH] 412:338</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[enh] 36:21</t>
+          <t>[ENH] 165:418</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[enh] 44:30</t>
+          <t>[ENH] 944:404</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[enh] 91:28</t>
+          <t>[ENH] 123:287</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[enh] 61:75</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="7">
+          <t>[ENH] 178:783</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="6">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[enh] 29:57</t>
+          <t>[ENH] 312:735</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[enh] 27:55</t>
+          <t>[ENH] 442:656</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[enh] 21:90</t>
+          <t>[ENH] 976:905</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[enh] 74:23</t>
+          <t>[ENH] 284:123</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[enh] 63:88</t>
+          <t>[ENH] 914:795</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[enh] 37:26</t>
+          <t>[ENH] 660:301</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[enh] 22:82</t>
+          <t>[ENH] 623:267</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[enh] 80:55</t>
+          <t>[ENH] 438:898</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[enh] 69:36</t>
+          <t>[ENH] 665:296</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[enh] 89:12</t>
+          <t>[ENH] 304:981</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[enh] 93:83</t>
+          <t>[ENH] 849:194</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[enh] 88:63</t>
+          <t>[ENH] 554:400</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[enh] 68:66</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="7">
+          <t>[ENH] 307:808</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="6">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[enh] 71:86</t>
+          <t>[ENH] 511:895</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[enh] 97:69</t>
+          <t>[ENH] 649:951</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[enh] 82:43</t>
+          <t>[ENH] 454:456</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[enh] 35:40</t>
+          <t>[ENH] 627:736</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[enh] 94:22</t>
+          <t>[ENH] 760:353</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[enh] 32:42</t>
+          <t>[ENH] 515:216</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[enh] 48:7</t>
+          <t>[ENH] 371:942</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[enh] 63:18</t>
+          <t>[ENH] 304:757</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[enh] 52:87</t>
+          <t>[ENH] 966:377</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[enh] 95:70</t>
+          <t>[ENH] 480:523</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[enh] 83:47</t>
+          <t>[ENH] 509:974</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[enh] 65:15</t>
+          <t>[ENH] 963:281</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[enh] 42:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="7">
+          <t>[ENH] 534:363</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="6">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[enh] 87:75</t>
+          <t>[ENH] 457:481</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[enh] 96:4</t>
+          <t>[ENH] 308:158</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[enh] 38:44</t>
+          <t>[ENH] 646:206</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[enh] 52:63</t>
+          <t>[ENH] 301:585</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[enh] 76:77</t>
+          <t>[ENH] 621:435</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[enh] 91:57</t>
+          <t>[ENH] 690:379</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[enh] 65:95</t>
+          <t>[ENH] 305:977</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[enh] 94:59</t>
+          <t>[ENH] 113:964</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[enh] 26:91</t>
+          <t>[ENH] 941:350</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[enh] 51:64</t>
+          <t>[ENH] 619:457</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[enh] 37:87</t>
+          <t>[ENH] 877:402</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[enh] 58:88</t>
+          <t>[ENH] 674:718</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[enh] 41:77</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="7">
+          <t>[ENH] 736:914</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="6">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[enh] 51:17</t>
+          <t>[ENH] 885:292</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[enh] 79:83</t>
+          <t>[ENH] 336:607</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[enh] 45:19</t>
+          <t>[ENH] 553:536</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[enh] 28:78</t>
+          <t>[ENH] 970:137</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[enh] 24:43</t>
+          <t>[ENH] 452:748</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[enh] 64:79</t>
+          <t>[ENH] 715:405</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[enh] 82:10</t>
+          <t>[ENH] 414:770</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[enh] 66:20</t>
+          <t>[ENH] 404:496</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[enh] 69:52</t>
+          <t>[ENH] 847:195</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[enh] 38:66</t>
+          <t>[ENH] 187:184</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[enh] 24:88</t>
+          <t>[ENH] 965:632</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[enh] 88:34</t>
+          <t>[ENH] 361:415</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[enh] 83:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="7">
+          <t>[ENH] 431:465</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="6">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[enh] 92:38</t>
+          <t>[ENH] 428:490</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[enh] 30:91</t>
+          <t>[ENH] 478:343</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[enh] 51:90</t>
+          <t>[ENH] 974:698</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[enh] 84:65</t>
+          <t>[ENH] 847:282</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[enh] 50:57</t>
+          <t>[ENH] 224:692</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[enh] 76:89</t>
+          <t>[ENH] 826:534</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[enh] 54:52</t>
+          <t>[ENH] 479:704</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[enh] 73:28</t>
+          <t>[ENH] 959:337</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[enh] 31:55</t>
+          <t>[ENH] 641:395</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[enh] 60:74</t>
+          <t>[ENH] 931:458</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[enh] 80:69</t>
+          <t>[ENH] 279:156</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[enh] 94:95</t>
+          <t>[ENH] 828:686</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[enh] 48:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="7">
+          <t>[ENH] 307:455</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="6">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[enh] 47:64</t>
+          <t>[ENH] 440:204</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[enh] 40:97</t>
+          <t>[ENH] 435:110</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[enh] 86:35</t>
+          <t>[ENH] 808:356</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[enh] 34:32</t>
+          <t>[ENH] 129:282</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[enh] 47:20</t>
+          <t>[ENH] 452:520</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[enh] 60:27</t>
+          <t>[ENH] 594:134</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[enh] 24:88</t>
+          <t>[ENH] 970:497</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[enh] 96:60</t>
+          <t>[ENH] 159:944</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[enh] 50:47</t>
+          <t>[ENH] 973:915</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[enh] 68:40</t>
+          <t>[ENH] 991:986</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[enh] 74:56</t>
+          <t>[ENH] 714:639</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[enh] 68:85</t>
+          <t>[ENH] 995:260</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[enh] 55:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="7">
+          <t>[ENH] 993:881</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="6">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[enh] 62:97</t>
+          <t>[ENH] 199:546</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[enh] 94:63</t>
+          <t>[ENH] 157:528</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[enh] 82:17</t>
+          <t>[ENH] 780:382</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[enh] 33:57</t>
+          <t>[ENH] 326:736</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[enh] 84:58</t>
+          <t>[ENH] 557:538</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[enh] 76:68</t>
+          <t>[ENH] 275:234</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[enh] 40:77</t>
+          <t>[ENH] 262:310</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[enh] 37:53</t>
+          <t>[ENH] 124:874</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[enh] 60:53</t>
+          <t>[ENH] 911:112</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[enh] 75:69</t>
+          <t>[ENH] 986:941</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[enh] 93:60</t>
+          <t>[ENH] 580:444</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[enh] 85:86</t>
+          <t>[ENH] 620:678</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[enh] 47:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="7">
+          <t>[ENH] 577:779</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="6">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[enh] 54:53</t>
+          <t>[ENH] 292:731</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[enh] 48:8</t>
+          <t>[ENH] 556:546</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[enh] 68:73</t>
+          <t>[ENH] 231:285</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[enh] 35:72</t>
+          <t>[ENH] 430:377</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[enh] 54:68</t>
+          <t>[ENH] 841:153</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[enh] 34:43</t>
+          <t>[ENH] 677:804</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[enh] 54:15</t>
+          <t>[ENH] 589:500</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[enh] 43:91</t>
+          <t>[ENH] 880:905</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[enh] 81:73</t>
+          <t>[ENH] 635:540</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[enh] 68:24</t>
+          <t>[ENH] 653:242</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[enh] 26:57</t>
+          <t>[ENH] 792:526</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[enh] 53:71</t>
+          <t>[ENH] 622:619</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[enh] 75:64</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="7">
+          <t>[ENH] 440:121</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="6">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[enh] 36:58</t>
+          <t>[ENH] 760:999</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[enh] 45:37</t>
+          <t>[ENH] 794:727</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[enh] 75:22</t>
+          <t>[ENH] 864:343</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[enh] 33:91</t>
+          <t>[ENH] 130:233</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[enh] 51:40</t>
+          <t>[ENH] 946:303</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[enh] 31:94</t>
+          <t>[ENH] 284:125</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[enh] 38:81</t>
+          <t>[ENH] 419:268</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[enh] 57:69</t>
+          <t>[ENH] 655:758</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[enh] 62:81</t>
+          <t>[ENH] 303:158</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[enh] 48:62</t>
+          <t>[ENH] 644:871</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[enh] 30:93</t>
+          <t>[ENH] 337:584</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[enh] 82:95</t>
+          <t>[ENH] 544:601</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[enh] 55:77</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="7">
+          <t>[ENH] 913:560</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="6">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[enh] 64:83</t>
+          <t>[ENH] 518:153</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[enh] 31:99</t>
+          <t>[ENH] 186:551</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[enh] 36:64</t>
+          <t>[ENH] 980:803</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[enh] 58:79</t>
+          <t>[ENH] 302:272</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[enh] 50:99</t>
+          <t>[ENH] 546:194</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[enh] 52:28</t>
+          <t>[ENH] 370:736</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[enh] 82:99</t>
+          <t>[ENH] 444:456</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[enh] 95:32</t>
+          <t>[ENH] 413:857</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[enh] 45:72</t>
+          <t>[ENH] 188:128</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[enh] 34:17</t>
+          <t>[ENH] 264:874</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[enh] 76:41</t>
+          <t>[ENH] 856:874</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[enh] 41:61</t>
+          <t>[ENH] 145:587</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[enh] 55:86</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="7">
+          <t>[ENH] 911:202</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="6">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[enh] 44:62</t>
+          <t>[ENH] 619:156</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[enh] 63:58</t>
+          <t>[ENH] 399:385</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[enh] 45:7</t>
+          <t>[ENH] 659:685</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[enh] 69:23</t>
+          <t>[ENH] 319:658</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[enh] 29:77</t>
+          <t>[ENH] 658:730</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[enh] 40:50</t>
+          <t>[ENH] 407:319</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[enh] 74:99</t>
+          <t>[ENH] 456:160</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[enh] 76:55</t>
+          <t>[ENH] 726:227</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[enh] 39:85</t>
+          <t>[ENH] 340:703</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[enh] 67:87</t>
+          <t>[ENH] 148:212</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[enh] 51:54</t>
+          <t>[ENH] 127:430</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[enh] 86:18</t>
+          <t>[ENH] 136:474</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[enh] 60:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="7">
+          <t>[ENH] 716:867</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="6">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[enh] 34:54</t>
+          <t>[ENH] 994:421</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[enh] 33:44</t>
+          <t>[ENH] 138:987</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[enh] 68:49</t>
+          <t>[ENH] 282:294</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[enh] 33:25</t>
+          <t>[ENH] 961:869</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[enh] 66:71</t>
+          <t>[ENH] 197:651</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[enh] 52:64</t>
+          <t>[ENH] 472:309</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[enh] 57:14</t>
+          <t>[ENH] 952:759</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[enh] 95:32</t>
+          <t>[ENH] 878:223</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[enh] 51:35</t>
+          <t>[ENH] 255:571</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[enh] 45:61</t>
+          <t>[ENH] 123:539</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[enh] 58:58</t>
+          <t>[ENH] 194:455</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[enh] 97:71</t>
+          <t>[ENH] 489:141</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[enh] 76:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="7">
+          <t>[ENH] 656:328</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="6">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[enh] 97:51</t>
+          <t>[ENH] 226:695</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[enh] 41:85</t>
+          <t>[ENH] 790:737</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[enh] 84:21</t>
+          <t>[ENH] 907:400</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[enh] 49:28</t>
+          <t>[ENH] 253:590</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[enh] 78:85</t>
+          <t>[ENH] 425:667</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[enh] 70:65</t>
+          <t>[ENH] 153:787</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[enh] 35:88</t>
+          <t>[ENH] 910:740</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[enh] 73:63</t>
+          <t>[ENH] 566:334</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[enh] 38:17</t>
+          <t>[ENH] 156:937</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[enh] 82:47</t>
+          <t>[ENH] 307:644</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[enh] 82:20</t>
+          <t>[ENH] 401:107</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[enh] 73:58</t>
+          <t>[ENH] 974:516</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[enh] 43:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="7">
+          <t>[ENH] 649:560</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="6">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[enh] 45:92</t>
+          <t>[ENH] 921:483</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[enh] 72:80</t>
+          <t>[ENH] 813:564</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[enh] 73:26</t>
+          <t>[ENH] 470:841</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[enh] 56:89</t>
+          <t>[ENH] 272:295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[enh] 40:19</t>
+          <t>[ENH] 349:869</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[enh] 96:75</t>
+          <t>[ENH] 727:794</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[enh] 68:20</t>
+          <t>[ENH] 513:327</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[enh] 66:93</t>
+          <t>[ENH] 494:451</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[enh] 95:45</t>
+          <t>[ENH] 829:412</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[enh] 76:34</t>
+          <t>[ENH] 903:891</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[enh] 55:40</t>
+          <t>[ENH] 421:499</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[enh] 72:22</t>
+          <t>[ENH] 235:993</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[enh] 73:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="7">
+          <t>[ENH] 374:198</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="6">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[enh] 73:96</t>
+          <t>[ENH] 866:712</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[enh] 48:48</t>
+          <t>[ENH] 694:497</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[enh] 32:79</t>
+          <t>[ENH] 529:146</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[enh] 69:82</t>
+          <t>[ENH] 155:653</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[enh] 42:82</t>
+          <t>[ENH] 869:947</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[enh] 45:66</t>
+          <t>[ENH] 732:145</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[enh] 84:76</t>
+          <t>[ENH] 728:653</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[enh] 77:12</t>
+          <t>[ENH] 481:376</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[enh] 34:98</t>
+          <t>[ENH] 306:878</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[enh] 77:81</t>
+          <t>[ENH] 866:786</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[enh] 55:83</t>
+          <t>[ENH] 545:910</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>[enh] 80:62</t>
+          <t>[ENH] 745:138</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[enh] 55:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="7">
+          <t>[ENH] 304:221</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="6">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[enh] 93:50</t>
+          <t>[ENH] 501:547</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[enh] 51:4</t>
+          <t>[ENH] 242:489</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[enh] 37:99</t>
+          <t>[ENH] 473:490</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[enh] 34:67</t>
+          <t>[ENH] 863:316</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[enh] 42:44</t>
+          <t>[ENH] 649:574</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[enh] 36:66</t>
+          <t>[ENH] 307:883</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[enh] 46:60</t>
+          <t>[ENH] 870:447</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[enh] 45:81</t>
+          <t>[ENH] 935:618</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[enh] 79:56</t>
+          <t>[ENH] 561:469</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[enh] 69:43</t>
+          <t>[ENH] 368:951</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[enh] 46:80</t>
+          <t>[ENH] 532:721</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>[enh] 62:72</t>
+          <t>[ENH] 344:628</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[enh] 96:70</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="7">
+          <t>[ENH] 809:389</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="6">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[enh] 45:40</t>
+          <t>[ENH] 960:764</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[enh] 69:13</t>
+          <t>[ENH] 538:155</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[enh] 70:94</t>
+          <t>[ENH] 662:919</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[enh] 47:21</t>
+          <t>[ENH] 193:368</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[enh] 75:39</t>
+          <t>[ENH] 459:418</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[enh] 50:58</t>
+          <t>[ENH] 146:732</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[enh] 41:54</t>
+          <t>[ENH] 300:664</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[enh] 38:62</t>
+          <t>[ENH] 887:587</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[enh] 54:19</t>
+          <t>[ENH] 868:444</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[enh] 95:74</t>
+          <t>[ENH] 483:114</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>[enh] 65:37</t>
+          <t>[ENH] 400:643</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>[enh] 48:37</t>
+          <t>[ENH] 203:160</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[enh] 45:83</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="7">
+          <t>[ENH] 464:871</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="6">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[enh] 70:58</t>
+          <t>[ENH] 408:396</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[enh] 41:22</t>
+          <t>[ENH] 496:162</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[enh] 56:48</t>
+          <t>[ENH] 133:699</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[enh] 42:71</t>
+          <t>[ENH] 559:336</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[enh] 84:85</t>
+          <t>[ENH] 104:262</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[enh] 81:14</t>
+          <t>[ENH] 633:984</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[enh] 42:59</t>
+          <t>[ENH] 331:417</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[enh] 80:22</t>
+          <t>[ENH] 219:154</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[enh] 51:97</t>
+          <t>[ENH] 232:455</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[enh] 52:84</t>
+          <t>[ENH] 934:718</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[enh] 58:73</t>
+          <t>[ENH] 895:449</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[enh] 42:35</t>
+          <t>[ENH] 194:223</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[enh] 83:63</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="7">
+          <t>[ENH] 355:467</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="6">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[enh] 52:77</t>
+          <t>[ENH] 141:452</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[enh] 54:50</t>
+          <t>[ENH] 600:835</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[enh] 52:13</t>
+          <t>[ENH] 108:648</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[enh] 92:82</t>
+          <t>[ENH] 480:262</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[enh] 74:89</t>
+          <t>[ENH] 324:162</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[enh] 63:68</t>
+          <t>[ENH] 316:146</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[enh] 98:9</t>
+          <t>[ENH] 464:441</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[enh] 43:97</t>
+          <t>[ENH] 664:594</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[enh] 74:19</t>
+          <t>[ENH] 277:337</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[enh] 56:43</t>
+          <t>[ENH] 999:174</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[enh] 57:50</t>
+          <t>[ENH] 365:276</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>[enh] 78:12</t>
+          <t>[ENH] 662:944</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[enh] 96:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" s="7">
+          <t>[ENH] 689:718</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="6">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[enh] 85:73</t>
+          <t>[ENH] 457:265</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[enh] 92:69</t>
+          <t>[ENH] 321:837</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[enh] 55:49</t>
+          <t>[ENH] 185:314</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[enh] 73:99</t>
+          <t>[ENH] 414:737</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[enh] 86:26</t>
+          <t>[ENH] 631:795</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[enh] 70:21</t>
+          <t>[ENH] 826:607</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[enh] 69:16</t>
+          <t>[ENH] 308:847</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[enh] 68:54</t>
+          <t>[ENH] 287:921</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[enh] 90:58</t>
+          <t>[ENH] 579:768</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[enh] 73:54</t>
+          <t>[ENH] 975:517</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[enh] 58:12</t>
+          <t>[ENH] 163:792</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[enh] 99:94</t>
+          <t>[ENH] 699:158</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[enh] 78:79</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="7">
+          <t>[ENH] 209:391</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="6">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[enh] 38:18</t>
+          <t>[ENH] 869:145</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[enh] 47:96</t>
+          <t>[ENH] 320:208</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[enh] 92:19</t>
+          <t>[ENH] 183:401</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[enh] 54:96</t>
+          <t>[ENH] 735:988</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[enh] 58:88</t>
+          <t>[ENH] 647:124</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[enh] 58:31</t>
+          <t>[ENH] 356:277</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[enh] 76:82</t>
+          <t>[ENH] 312:624</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[enh] 72:31</t>
+          <t>[ENH] 956:446</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[enh] 46:98</t>
+          <t>[ENH] 383:622</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[enh] 93:28</t>
+          <t>[ENH] 259:366</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[enh] 56:78</t>
+          <t>[ENH] 398:953</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>[enh] 57:48</t>
+          <t>[ENH] 325:850</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[enh] 97:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="7">
+          <t>[ENH] 467:894</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="6">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[enh] 91:2</t>
+          <t>[ENH] 439:422</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[enh] 50:29</t>
+          <t>[ENH] 784:720</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[enh] 60:57</t>
+          <t>[ENH] 471:154</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[enh] 43:86</t>
+          <t>[ENH] 437:899</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[enh] 89:17</t>
+          <t>[ENH] 554:490</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[enh] 87:86</t>
+          <t>[ENH] 811:306</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[enh] 46:98</t>
+          <t>[ENH] 463:949</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[enh] 67:8</t>
+          <t>[ENH] 921:283</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[enh] 91:21</t>
+          <t>[ENH] 422:477</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[enh] 81:83</t>
+          <t>[ENH] 673:137</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[enh] 42:25</t>
+          <t>[ENH] 598:750</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>[enh] 91:89</t>
+          <t>[ENH] 932:878</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[enh] 41:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="7">
+          <t>[ENH] 942:175</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="6">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[enh] 91:83</t>
+          <t>[ENH] 443:819</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[enh] 85:64</t>
+          <t>[ENH] 700:738</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[enh] 51:74</t>
+          <t>[ENH] 764:934</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[enh] 81:24</t>
+          <t>[ENH] 769:533</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[enh] 58:97</t>
+          <t>[ENH] 503:219</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[enh] 51:21</t>
+          <t>[ENH] 312:246</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[enh] 57:46</t>
+          <t>[ENH] 758:252</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[enh] 73:36</t>
+          <t>[ENH] 144:702</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[enh] 72:82</t>
+          <t>[ENH] 303:965</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[enh] 90:76</t>
+          <t>[ENH] 555:812</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[enh] 78:47</t>
+          <t>[ENH] 720:554</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>[enh] 56:30</t>
+          <t>[ENH] 344:468</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[enh] 72:65</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="7">
+          <t>[ENH] 761:688</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="6">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[enh] 92:58</t>
+          <t>[ENH] 792:806</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[enh] 46:40</t>
+          <t>[ENH] 984:914</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[enh] 43:61</t>
+          <t>[ENH] 495:671</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[enh] 48:99</t>
+          <t>[ENH] 629:725</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[enh] 72:52</t>
+          <t>[ENH] 364:102</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[enh] 82:70</t>
+          <t>[ENH] 315:413</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[enh] 75:65</t>
+          <t>[ENH] 973:701</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[enh] 61:27</t>
+          <t>[ENH] 389:983</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[enh] 63:63</t>
+          <t>[ENH] 519:631</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[enh] 89:85</t>
+          <t>[ENH] 333:929</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[enh] 55:53</t>
+          <t>[ENH] 114:591</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>[enh] 59:13</t>
+          <t>[ENH] 834:721</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[enh] 66:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="7">
+          <t>[ENH] 607:149</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="6">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[enh] 90:46</t>
+          <t>[ENH] 399:431</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[enh] 56:95</t>
+          <t>[ENH] 955:792</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[enh] 95:51</t>
+          <t>[ENH] 300:307</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[enh] 43:52</t>
+          <t>[ENH] 949:570</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[enh] 80:67</t>
+          <t>[ENH] 570:827</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[enh] 76:58</t>
+          <t>[ENH] 943:674</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[enh] 82:34</t>
+          <t>[ENH] 275:511</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[enh] 73:50</t>
+          <t>[ENH] 382:767</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[enh] 50:84</t>
+          <t>[ENH] 742:520</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[enh] 75:88</t>
+          <t>[ENH] 354:684</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>[enh] 86:13</t>
+          <t>[ENH] 883:344</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>[enh] 95:74</t>
+          <t>[ENH] 130:840</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[enh] 56:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="7">
+          <t>[ENH] 127:163</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="6">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[enh] 83:19</t>
+          <t>[ENH] 661:868</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[enh] 89:82</t>
+          <t>[ENH] 572:566</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[enh] 83:44</t>
+          <t>[ENH] 992:704</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[enh] 99:70</t>
+          <t>[ENH] 906:437</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[enh] 56:34</t>
+          <t>[ENH] 974:879</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[enh] 69:17</t>
+          <t>[ENH] 689:129</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[enh] 66:89</t>
+          <t>[ENH] 349:113</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[enh] 94:79</t>
+          <t>[ENH] 820:128</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[enh] 73:48</t>
+          <t>[ENH] 671:669</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[enh] 93:44</t>
+          <t>[ENH] 238:568</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>[enh] 50:77</t>
+          <t>[ENH] 411:337</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>[enh] 52:25</t>
+          <t>[ENH] 616:219</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[enh] 58:93</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="7">
+          <t>[ENH] 685:290</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="6">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[enh] 62:15</t>
+          <t>[ENH] 332:366</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[enh] 58:56</t>
+          <t>[ENH] 709:981</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[enh] 59:87</t>
+          <t>[ENH] 280:246</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[enh] 88:6</t>
+          <t>[ENH] 758:792</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[enh] 93:59</t>
+          <t>[ENH] 871:961</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[enh] 70:85</t>
+          <t>[ENH] 836:481</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[enh] 60:30</t>
+          <t>[ENH] 502:498</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[enh] 68:25</t>
+          <t>[ENH] 586:689</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[enh] 44:70</t>
+          <t>[ENH] 304:765</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[enh] 78:64</t>
+          <t>[ENH] 197:343</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>[enh] 77:11</t>
+          <t>[ENH] 873:160</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>[enh] 50:53</t>
+          <t>[ENH] 116:682</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[enh] 55:90</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="7">
+          <t>[ENH] 451:341</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="6">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[enh] 82:42</t>
+          <t>[ENH] 619:569</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[enh] 80:40</t>
+          <t>[ENH] 756:256</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[enh] 74:10</t>
+          <t>[ENH] 914:505</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[enh] 72:31</t>
+          <t>[ENH] 358:158</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[enh] 74:58</t>
+          <t>[ENH] 290:172</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[enh] 95:20</t>
+          <t>[ENH] 650:214</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[enh] 47:35</t>
+          <t>[ENH] 876:900</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[enh] 51:60</t>
+          <t>[ENH] 771:679</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[enh] 47:78</t>
+          <t>[ENH] 866:778</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[enh] 76:14</t>
+          <t>[ENH] 162:782</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>[enh] 67:82</t>
+          <t>[ENH] 918:222</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>[enh] 65:68</t>
+          <t>[ENH] 659:121</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[enh] 92:81</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="7">
+          <t>[ENH] 778:920</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" s="6">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[enh] 68:36</t>
+          <t>[ENH] 795:289</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[enh] 93:46</t>
+          <t>[ENH] 348:149</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[enh] 47:39</t>
+          <t>[ENH] 573:100</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[enh] 51:70</t>
+          <t>[ENH] 186:310</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[enh] 79:28</t>
+          <t>[ENH] 740:797</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[enh] 57:78</t>
+          <t>[ENH] 489:746</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[enh] 51:43</t>
+          <t>[ENH] 570:118</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[enh] 98:9</t>
+          <t>[ENH] 568:540</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[enh] 59:13</t>
+          <t>[ENH] 194:537</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[enh] 58:94</t>
+          <t>[ENH] 949:502</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[enh] 63:77</t>
+          <t>[ENH] 842:839</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>[enh] 93:77</t>
+          <t>[ENH] 520:894</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[enh] 46:98</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1" s="7">
+          <t>[ENH] 908:142</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="6">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[enh] 48:64</t>
+          <t>[ENH] 936:294</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[enh] 61:64</t>
+          <t>[ENH] 842:344</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[enh] 97:71</t>
+          <t>[ENH] 626:238</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[enh] 99:62</t>
+          <t>[ENH] 385:107</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[enh] 55:45</t>
+          <t>[ENH] 279:476</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[enh] 70:52</t>
+          <t>[ENH] 125:355</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[enh] 60:79</t>
+          <t>[ENH] 716:833</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[enh] 98:58</t>
+          <t>[ENH] 781:179</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[enh] 91:78</t>
+          <t>[ENH] 146:882</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[enh] 61:74</t>
+          <t>[ENH] 214:557</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[enh] 47:72</t>
+          <t>[ENH] 168:233</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>[enh] 99:44</t>
+          <t>[ENH] 209:456</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[enh] 78:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1" s="7">
+          <t>[ENH] 370:449</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" s="6">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[enh] 86:61</t>
+          <t>[ENH] 751:899</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[enh] 88:23</t>
+          <t>[ENH] 285:470</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[enh] 74:78</t>
+          <t>[ENH] 471:899</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[enh] 92:33</t>
+          <t>[ENH] 647:851</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[enh] 80:83</t>
+          <t>[ENH] 626:193</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[enh] 66:23</t>
+          <t>[ENH] 329:758</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[enh] 72:79</t>
+          <t>[ENH] 733:664</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[enh] 56:83</t>
+          <t>[ENH] 396:565</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[enh] 87:84</t>
+          <t>[ENH] 137:157</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[enh] 59:16</t>
+          <t>[ENH] 272:119</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[enh] 62:56</t>
+          <t>[ENH] 903:136</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>[enh] 89:34</t>
+          <t>[ENH] 343:805</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[enh] 84:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1" s="7">
+          <t>[ENH] 213:403</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" s="6">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[enh] 59:11</t>
+          <t>[ENH] 977:910</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[enh] 49:95</t>
+          <t>[ENH] 714:410</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[enh] 94:59</t>
+          <t>[ENH] 425:332</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[enh] 87:70</t>
+          <t>[ENH] 533:714</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[enh] 86:21</t>
+          <t>[ENH] 848:743</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[enh] 94:65</t>
+          <t>[ENH] 578:728</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[enh] 80:38</t>
+          <t>[ENH] 642:163</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[enh] 93:72</t>
+          <t>[ENH] 614:755</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[enh] 83:32</t>
+          <t>[ENH] 901:825</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[enh] 53:20</t>
+          <t>[ENH] 397:363</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[enh] 49:59</t>
+          <t>[ENH] 671:314</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>[enh] 50:43</t>
+          <t>[ENH] 456:741</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[enh] 84:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1" s="7">
+          <t>[ENH] 420:145</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" s="6">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[enh] 70:7</t>
+          <t>[ENH] 553:402</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[enh] 97:20</t>
+          <t>[ENH] 683:526</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[enh] 76:11</t>
+          <t>[ENH] 136:419</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[enh] 95:78</t>
+          <t>[ENH] 396:585</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[enh] 78:44</t>
+          <t>[ENH] 321:826</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[enh] 91:10</t>
+          <t>[ENH] 304:134</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[enh] 81:94</t>
+          <t>[ENH] 596:739</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[enh] 95:72</t>
+          <t>[ENH] 466:197</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[enh] 71:99</t>
+          <t>[ENH] 966:737</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[enh] 56:93</t>
+          <t>[ENH] 901:525</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[enh] 90:64</t>
+          <t>[ENH] 166:567</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>[enh] 51:56</t>
+          <t>[ENH] 438:207</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[enh] 77:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1" s="7"/>
-    <row r="52" ht="15" customHeight="1" s="7"/>
-    <row r="53" ht="15" customHeight="1" s="7"/>
-    <row r="54" ht="15" customHeight="1" s="7"/>
-    <row r="55" ht="15" customHeight="1" s="7"/>
-    <row r="56" ht="15" customHeight="1" s="7"/>
-    <row r="57" ht="15" customHeight="1" s="7"/>
-    <row r="58" ht="15" customHeight="1" s="7"/>
-    <row r="59" ht="15" customHeight="1" s="7"/>
-    <row r="60" ht="15" customHeight="1" s="7"/>
-    <row r="61" ht="15" customHeight="1" s="7"/>
-    <row r="62" ht="15" customHeight="1" s="7"/>
-    <row r="63" ht="15" customHeight="1" s="7"/>
-    <row r="64" ht="15" customHeight="1" s="7"/>
-    <row r="65" ht="15" customHeight="1" s="7"/>
-    <row r="66" ht="15" customHeight="1" s="7"/>
-    <row r="67" ht="15" customHeight="1" s="7"/>
-    <row r="68" ht="15" customHeight="1" s="7"/>
-    <row r="69" ht="15" customHeight="1" s="7"/>
-    <row r="70" ht="15" customHeight="1" s="7"/>
-    <row r="71" ht="15" customHeight="1" s="7"/>
-    <row r="72" ht="15" customHeight="1" s="7"/>
-    <row r="73" ht="15" customHeight="1" s="7"/>
-    <row r="74" ht="15" customHeight="1" s="7"/>
-    <row r="75" ht="15" customHeight="1" s="7"/>
-    <row r="76" ht="15" customHeight="1" s="7"/>
-    <row r="77" ht="15" customHeight="1" s="7"/>
-    <row r="78" ht="15" customHeight="1" s="7"/>
-    <row r="79" ht="15" customHeight="1" s="7"/>
-    <row r="80" ht="15" customHeight="1" s="7"/>
-    <row r="81" ht="15" customHeight="1" s="7"/>
-    <row r="82" ht="15" customHeight="1" s="7"/>
-    <row r="83" ht="15" customHeight="1" s="7"/>
-    <row r="84" ht="15" customHeight="1" s="7"/>
-    <row r="85" ht="15" customHeight="1" s="7"/>
-    <row r="86" ht="15" customHeight="1" s="7"/>
-    <row r="87" ht="15" customHeight="1" s="7"/>
-    <row r="88" ht="15" customHeight="1" s="7"/>
-    <row r="89" ht="15" customHeight="1" s="7"/>
-    <row r="90" ht="15" customHeight="1" s="7"/>
-    <row r="91" ht="15" customHeight="1" s="7"/>
-    <row r="92" ht="15" customHeight="1" s="7"/>
-    <row r="93" ht="15" customHeight="1" s="7"/>
-    <row r="94" ht="15" customHeight="1" s="7"/>
-    <row r="95" ht="15" customHeight="1" s="7"/>
-    <row r="96" ht="15" customHeight="1" s="7"/>
-    <row r="97" ht="15" customHeight="1" s="7"/>
-    <row r="98" ht="15" customHeight="1" s="7"/>
-    <row r="99" ht="15" customHeight="1" s="7"/>
-    <row r="100" ht="15" customHeight="1" s="7"/>
-    <row r="101" ht="15" customHeight="1" s="7"/>
-    <row r="102" ht="15" customHeight="1" s="7"/>
-    <row r="103" ht="15" customHeight="1" s="7"/>
-    <row r="104" ht="15" customHeight="1" s="7"/>
-    <row r="105" ht="15" customHeight="1" s="7"/>
-    <row r="106" ht="15" customHeight="1" s="7"/>
-    <row r="107" ht="15" customHeight="1" s="7"/>
-    <row r="108" ht="15" customHeight="1" s="7"/>
-    <row r="109" ht="15" customHeight="1" s="7"/>
-    <row r="110" ht="15" customHeight="1" s="7"/>
-    <row r="111" ht="15" customHeight="1" s="7"/>
-    <row r="112" ht="15" customHeight="1" s="7"/>
-    <row r="113" ht="15" customHeight="1" s="7"/>
-    <row r="114" ht="15" customHeight="1" s="7"/>
-    <row r="115" ht="15" customHeight="1" s="7"/>
-    <row r="116" ht="15" customHeight="1" s="7"/>
-    <row r="117" ht="15" customHeight="1" s="7"/>
-    <row r="118" ht="15" customHeight="1" s="7"/>
-    <row r="119" ht="15" customHeight="1" s="7"/>
-    <row r="120" ht="15" customHeight="1" s="7"/>
-    <row r="121" ht="15" customHeight="1" s="7"/>
-    <row r="122" ht="15" customHeight="1" s="7"/>
-    <row r="123" ht="15" customHeight="1" s="7"/>
-    <row r="124" ht="15" customHeight="1" s="7"/>
-    <row r="125" ht="15" customHeight="1" s="7"/>
-    <row r="126" ht="15" customHeight="1" s="7"/>
-    <row r="127" ht="15" customHeight="1" s="7"/>
-    <row r="128" ht="15" customHeight="1" s="7"/>
-    <row r="129" ht="15" customHeight="1" s="7"/>
-    <row r="130" ht="15" customHeight="1" s="7"/>
-    <row r="131" ht="15" customHeight="1" s="7"/>
-    <row r="132" ht="15" customHeight="1" s="7"/>
-    <row r="133" ht="15" customHeight="1" s="7"/>
-    <row r="134" ht="15" customHeight="1" s="7"/>
-    <row r="135" ht="15" customHeight="1" s="7"/>
-    <row r="136" ht="15" customHeight="1" s="7"/>
-    <row r="137" ht="15" customHeight="1" s="7"/>
-    <row r="138" ht="15" customHeight="1" s="7"/>
-    <row r="139" ht="15" customHeight="1" s="7"/>
-    <row r="140" ht="15" customHeight="1" s="7"/>
-    <row r="141" ht="15" customHeight="1" s="7"/>
-    <row r="142" ht="15" customHeight="1" s="7"/>
-    <row r="143" ht="15" customHeight="1" s="7"/>
-    <row r="144" ht="15" customHeight="1" s="7"/>
-    <row r="145" ht="15" customHeight="1" s="7"/>
-    <row r="146" ht="15" customHeight="1" s="7"/>
-    <row r="147" ht="15" customHeight="1" s="7"/>
-    <row r="148" ht="15" customHeight="1" s="7"/>
-    <row r="149" ht="15" customHeight="1" s="7"/>
-    <row r="150" ht="15" customHeight="1" s="7"/>
-    <row r="151" ht="15" customHeight="1" s="7"/>
-    <row r="152" ht="15" customHeight="1" s="7"/>
-    <row r="153" ht="15" customHeight="1" s="7"/>
-    <row r="154" ht="15" customHeight="1" s="7"/>
-    <row r="155" ht="15" customHeight="1" s="7"/>
-    <row r="156" ht="15" customHeight="1" s="7"/>
-    <row r="157" ht="15" customHeight="1" s="7"/>
-    <row r="158" ht="15" customHeight="1" s="7"/>
-    <row r="159" ht="15" customHeight="1" s="7"/>
-    <row r="160" ht="15" customHeight="1" s="7"/>
-    <row r="161" ht="15" customHeight="1" s="7"/>
-    <row r="162" ht="15" customHeight="1" s="7"/>
-    <row r="163" ht="15" customHeight="1" s="7"/>
-    <row r="164" ht="15" customHeight="1" s="7"/>
-    <row r="165" ht="15" customHeight="1" s="7"/>
-    <row r="166" ht="15" customHeight="1" s="7"/>
-    <row r="167" ht="15" customHeight="1" s="7"/>
-    <row r="168" ht="15" customHeight="1" s="7"/>
-    <row r="169" ht="15" customHeight="1" s="7"/>
-    <row r="170" ht="15" customHeight="1" s="7"/>
-    <row r="171" ht="15" customHeight="1" s="7"/>
-    <row r="172" ht="15" customHeight="1" s="7"/>
-    <row r="173" ht="15" customHeight="1" s="7"/>
-    <row r="174" ht="15" customHeight="1" s="7"/>
-    <row r="175" ht="15" customHeight="1" s="7"/>
-    <row r="176" ht="15" customHeight="1" s="7"/>
-    <row r="177" ht="15" customHeight="1" s="7"/>
-    <row r="178" ht="15" customHeight="1" s="7"/>
-    <row r="179" ht="15" customHeight="1" s="7"/>
-    <row r="180" ht="15" customHeight="1" s="7"/>
-    <row r="181" ht="15" customHeight="1" s="7"/>
-    <row r="182" ht="15" customHeight="1" s="7"/>
-    <row r="183" ht="15" customHeight="1" s="7"/>
-    <row r="184" ht="15" customHeight="1" s="7"/>
-    <row r="185" ht="15" customHeight="1" s="7"/>
-    <row r="186" ht="15" customHeight="1" s="7"/>
-    <row r="187" ht="15" customHeight="1" s="7"/>
-    <row r="188" ht="15" customHeight="1" s="7"/>
-    <row r="189" ht="15" customHeight="1" s="7"/>
-    <row r="190" ht="15" customHeight="1" s="7"/>
-    <row r="191" ht="15" customHeight="1" s="7"/>
-    <row r="192" ht="15" customHeight="1" s="7"/>
-    <row r="193" ht="15" customHeight="1" s="7"/>
-    <row r="194" ht="15" customHeight="1" s="7"/>
-    <row r="195" ht="15" customHeight="1" s="7"/>
-    <row r="196" ht="15" customHeight="1" s="7"/>
-    <row r="197" ht="15" customHeight="1" s="7"/>
-    <row r="198" ht="15" customHeight="1" s="7"/>
-    <row r="199" ht="15" customHeight="1" s="7"/>
-    <row r="200" ht="15" customHeight="1" s="7"/>
-    <row r="201" ht="15" customHeight="1" s="7"/>
-    <row r="202" ht="15" customHeight="1" s="7"/>
-    <row r="203" ht="15" customHeight="1" s="7"/>
-    <row r="204" ht="15" customHeight="1" s="7"/>
-    <row r="205" ht="15" customHeight="1" s="7"/>
-    <row r="206" ht="15" customHeight="1" s="7"/>
-    <row r="207" ht="15" customHeight="1" s="7"/>
-    <row r="208" ht="15" customHeight="1" s="7"/>
-    <row r="209" ht="15" customHeight="1" s="7"/>
-    <row r="210" ht="15" customHeight="1" s="7"/>
-    <row r="211" ht="15" customHeight="1" s="7"/>
-    <row r="212" ht="15" customHeight="1" s="7"/>
-    <row r="213" ht="15" customHeight="1" s="7"/>
-    <row r="214" ht="15" customHeight="1" s="7"/>
-    <row r="215" ht="15" customHeight="1" s="7"/>
-    <row r="216" ht="15" customHeight="1" s="7"/>
-    <row r="217" ht="15" customHeight="1" s="7"/>
-    <row r="218" ht="15" customHeight="1" s="7"/>
-    <row r="219" ht="15" customHeight="1" s="7"/>
-    <row r="220" ht="15" customHeight="1" s="7"/>
-    <row r="221" ht="15" customHeight="1" s="7"/>
-    <row r="222" ht="15" customHeight="1" s="7"/>
-    <row r="223" ht="15" customHeight="1" s="7"/>
-    <row r="224" ht="15" customHeight="1" s="7"/>
-    <row r="225" ht="15" customHeight="1" s="7"/>
-    <row r="226" ht="15" customHeight="1" s="7"/>
-    <row r="227" ht="15" customHeight="1" s="7"/>
-    <row r="228" ht="15" customHeight="1" s="7"/>
-    <row r="229" ht="15" customHeight="1" s="7"/>
-    <row r="230" ht="15" customHeight="1" s="7"/>
-    <row r="231" ht="15" customHeight="1" s="7"/>
-    <row r="232" ht="15" customHeight="1" s="7"/>
-    <row r="233" ht="15" customHeight="1" s="7"/>
-    <row r="234" ht="15" customHeight="1" s="7"/>
-    <row r="235" ht="15" customHeight="1" s="7"/>
-    <row r="236" ht="15" customHeight="1" s="7"/>
-    <row r="237" ht="15" customHeight="1" s="7"/>
-    <row r="238" ht="15" customHeight="1" s="7"/>
-    <row r="239" ht="15" customHeight="1" s="7"/>
-    <row r="240" ht="15" customHeight="1" s="7"/>
-    <row r="241" ht="15" customHeight="1" s="7"/>
-    <row r="242" ht="15" customHeight="1" s="7"/>
-    <row r="243" ht="15" customHeight="1" s="7"/>
-    <row r="244" ht="15" customHeight="1" s="7"/>
-    <row r="245" ht="15" customHeight="1" s="7"/>
-    <row r="246" ht="15" customHeight="1" s="7"/>
-    <row r="247" ht="15" customHeight="1" s="7"/>
-    <row r="248" ht="15" customHeight="1" s="7"/>
-    <row r="249" ht="15" customHeight="1" s="7"/>
-    <row r="250" ht="15" customHeight="1" s="7"/>
-    <row r="251" ht="15" customHeight="1" s="7"/>
-    <row r="252" ht="15" customHeight="1" s="7"/>
-    <row r="253" ht="15" customHeight="1" s="7"/>
-    <row r="254" ht="15" customHeight="1" s="7"/>
-    <row r="255" ht="15" customHeight="1" s="7"/>
-    <row r="256" ht="15" customHeight="1" s="7"/>
-    <row r="257" ht="15" customHeight="1" s="7"/>
-    <row r="258" ht="15" customHeight="1" s="7"/>
-    <row r="259" ht="15" customHeight="1" s="7"/>
-    <row r="260" ht="15" customHeight="1" s="7"/>
-    <row r="261" ht="15" customHeight="1" s="7"/>
-    <row r="262" ht="15" customHeight="1" s="7"/>
-    <row r="263" ht="15" customHeight="1" s="7"/>
-    <row r="264" ht="15" customHeight="1" s="7"/>
-    <row r="265" ht="15" customHeight="1" s="7"/>
-    <row r="266" ht="15" customHeight="1" s="7"/>
-    <row r="267" ht="15" customHeight="1" s="7"/>
-    <row r="268" ht="15" customHeight="1" s="7"/>
-    <row r="269" ht="15" customHeight="1" s="7"/>
-    <row r="270" ht="15" customHeight="1" s="7"/>
-    <row r="271" ht="15" customHeight="1" s="7"/>
-    <row r="272" ht="15" customHeight="1" s="7"/>
-    <row r="273" ht="15" customHeight="1" s="7"/>
-    <row r="274" ht="15" customHeight="1" s="7"/>
-    <row r="275" ht="15" customHeight="1" s="7"/>
-    <row r="276" ht="15" customHeight="1" s="7"/>
-    <row r="277" ht="15" customHeight="1" s="7"/>
-    <row r="278" ht="15" customHeight="1" s="7"/>
-    <row r="279" ht="15" customHeight="1" s="7"/>
-    <row r="280" ht="15" customHeight="1" s="7"/>
-    <row r="281" ht="15" customHeight="1" s="7"/>
-    <row r="282" ht="15" customHeight="1" s="7"/>
-    <row r="283" ht="15" customHeight="1" s="7"/>
-    <row r="284" ht="15" customHeight="1" s="7"/>
-    <row r="285" ht="15" customHeight="1" s="7"/>
-    <row r="286" ht="15" customHeight="1" s="7"/>
-    <row r="287" ht="15" customHeight="1" s="7"/>
-    <row r="288" ht="15" customHeight="1" s="7"/>
-    <row r="289" ht="15" customHeight="1" s="7"/>
-    <row r="290" ht="15" customHeight="1" s="7"/>
-    <row r="291" ht="15" customHeight="1" s="7"/>
-    <row r="292" ht="15" customHeight="1" s="7"/>
-    <row r="293" ht="15" customHeight="1" s="7"/>
-    <row r="294" ht="15" customHeight="1" s="7"/>
-    <row r="295" ht="15" customHeight="1" s="7"/>
-    <row r="296" ht="15" customHeight="1" s="7"/>
-    <row r="297" ht="15" customHeight="1" s="7"/>
-    <row r="298" ht="15" customHeight="1" s="7"/>
-    <row r="299" ht="15" customHeight="1" s="7"/>
-    <row r="300" ht="15" customHeight="1" s="7"/>
-    <row r="301" ht="15" customHeight="1" s="7"/>
-    <row r="302" ht="15" customHeight="1" s="7"/>
-    <row r="303" ht="15" customHeight="1" s="7"/>
-    <row r="304" ht="15" customHeight="1" s="7"/>
-    <row r="305" ht="15" customHeight="1" s="7"/>
-    <row r="306" ht="15" customHeight="1" s="7"/>
-    <row r="307" ht="15" customHeight="1" s="7"/>
-    <row r="308" ht="15" customHeight="1" s="7"/>
-    <row r="309" ht="15" customHeight="1" s="7"/>
-    <row r="310" ht="15" customHeight="1" s="7"/>
-    <row r="311" ht="15" customHeight="1" s="7"/>
-    <row r="312" ht="15" customHeight="1" s="7"/>
-    <row r="313" ht="15" customHeight="1" s="7"/>
-    <row r="314" ht="15" customHeight="1" s="7"/>
-    <row r="315" ht="15" customHeight="1" s="7"/>
-    <row r="316" ht="15" customHeight="1" s="7"/>
-    <row r="317" ht="15" customHeight="1" s="7"/>
-    <row r="318" ht="15" customHeight="1" s="7"/>
-    <row r="319" ht="15" customHeight="1" s="7"/>
-    <row r="320" ht="15" customHeight="1" s="7"/>
-    <row r="321" ht="15" customHeight="1" s="7"/>
-    <row r="322" ht="15" customHeight="1" s="7"/>
-    <row r="323" ht="15" customHeight="1" s="7"/>
-    <row r="324" ht="15" customHeight="1" s="7"/>
-    <row r="325" ht="15" customHeight="1" s="7"/>
-    <row r="326" ht="15" customHeight="1" s="7"/>
-    <row r="327" ht="15" customHeight="1" s="7"/>
-    <row r="328" ht="15" customHeight="1" s="7"/>
-    <row r="329" ht="15" customHeight="1" s="7"/>
-    <row r="330" ht="15" customHeight="1" s="7"/>
-    <row r="331" ht="15" customHeight="1" s="7"/>
-    <row r="332" ht="15" customHeight="1" s="7"/>
-    <row r="333" ht="15" customHeight="1" s="7"/>
-    <row r="334" ht="15" customHeight="1" s="7"/>
-    <row r="335" ht="15" customHeight="1" s="7"/>
-    <row r="336" ht="15" customHeight="1" s="7"/>
-    <row r="337" ht="15" customHeight="1" s="7"/>
-    <row r="338" ht="15" customHeight="1" s="7"/>
-    <row r="339" ht="15" customHeight="1" s="7"/>
-    <row r="340" ht="15" customHeight="1" s="7"/>
-    <row r="341" ht="15" customHeight="1" s="7"/>
-    <row r="342" ht="15" customHeight="1" s="7"/>
-    <row r="343" ht="15" customHeight="1" s="7"/>
-    <row r="344" ht="15" customHeight="1" s="7"/>
-    <row r="345" ht="15" customHeight="1" s="7"/>
-    <row r="346" ht="15" customHeight="1" s="7"/>
-    <row r="347" ht="15" customHeight="1" s="7"/>
-    <row r="348" ht="15" customHeight="1" s="7"/>
-    <row r="349" ht="15" customHeight="1" s="7"/>
-    <row r="350" ht="15" customHeight="1" s="7"/>
-    <row r="351" ht="15" customHeight="1" s="7"/>
-    <row r="352" ht="15" customHeight="1" s="7"/>
-    <row r="353" ht="15" customHeight="1" s="7"/>
-    <row r="354" ht="15" customHeight="1" s="7"/>
-    <row r="355" ht="15" customHeight="1" s="7"/>
-    <row r="356" ht="15" customHeight="1" s="7"/>
-    <row r="357" ht="15" customHeight="1" s="7"/>
-    <row r="358" ht="15" customHeight="1" s="7"/>
-    <row r="359" ht="15" customHeight="1" s="7"/>
-    <row r="360" ht="15" customHeight="1" s="7"/>
-    <row r="361" ht="15" customHeight="1" s="7"/>
-    <row r="362" ht="15" customHeight="1" s="7"/>
-    <row r="363" ht="15" customHeight="1" s="7"/>
-    <row r="364" ht="15" customHeight="1" s="7"/>
-    <row r="365" ht="15" customHeight="1" s="7"/>
-    <row r="366" ht="15" customHeight="1" s="7"/>
-    <row r="367" ht="15" customHeight="1" s="7"/>
-    <row r="368" ht="15" customHeight="1" s="7"/>
-    <row r="369" ht="15" customHeight="1" s="7"/>
-    <row r="370" ht="15" customHeight="1" s="7"/>
-    <row r="371" ht="15" customHeight="1" s="7"/>
-    <row r="372" ht="15" customHeight="1" s="7"/>
-    <row r="373" ht="15" customHeight="1" s="7"/>
-    <row r="374" ht="15" customHeight="1" s="7"/>
-    <row r="375" ht="15" customHeight="1" s="7"/>
-    <row r="376" ht="15" customHeight="1" s="7"/>
-    <row r="377" ht="15" customHeight="1" s="7"/>
-    <row r="378" ht="15" customHeight="1" s="7"/>
-    <row r="379" ht="15" customHeight="1" s="7"/>
-    <row r="380" ht="15" customHeight="1" s="7"/>
-    <row r="381" ht="15" customHeight="1" s="7"/>
-    <row r="382" ht="15" customHeight="1" s="7"/>
-    <row r="383" ht="15" customHeight="1" s="7"/>
-    <row r="384" ht="15" customHeight="1" s="7"/>
-    <row r="385" ht="15" customHeight="1" s="7"/>
-    <row r="386" ht="15" customHeight="1" s="7"/>
-    <row r="387" ht="15" customHeight="1" s="7"/>
-    <row r="388" ht="15" customHeight="1" s="7"/>
-    <row r="389" ht="15" customHeight="1" s="7"/>
-    <row r="390" ht="15" customHeight="1" s="7"/>
-    <row r="391" ht="15" customHeight="1" s="7"/>
-    <row r="392" ht="15" customHeight="1" s="7"/>
-    <row r="393" ht="15" customHeight="1" s="7"/>
-    <row r="394" ht="15" customHeight="1" s="7"/>
-    <row r="395" ht="15" customHeight="1" s="7"/>
-    <row r="396" ht="15" customHeight="1" s="7"/>
-    <row r="397" ht="15" customHeight="1" s="7"/>
-    <row r="398" ht="15" customHeight="1" s="7"/>
-    <row r="399" ht="15" customHeight="1" s="7"/>
-    <row r="400" ht="15" customHeight="1" s="7"/>
-    <row r="401" ht="15" customHeight="1" s="7"/>
-    <row r="402" ht="15" customHeight="1" s="7"/>
-    <row r="403" ht="15" customHeight="1" s="7"/>
-    <row r="404" ht="15" customHeight="1" s="7"/>
-    <row r="405" ht="15" customHeight="1" s="7"/>
-    <row r="406" ht="15" customHeight="1" s="7"/>
-    <row r="407" ht="15" customHeight="1" s="7"/>
-    <row r="408" ht="15" customHeight="1" s="7"/>
-    <row r="409" ht="15" customHeight="1" s="7"/>
-    <row r="410" ht="15" customHeight="1" s="7"/>
-    <row r="411" ht="15" customHeight="1" s="7"/>
-    <row r="412" ht="15" customHeight="1" s="7"/>
-    <row r="413" ht="15" customHeight="1" s="7"/>
-    <row r="414" ht="15" customHeight="1" s="7"/>
-    <row r="415" ht="15" customHeight="1" s="7"/>
-    <row r="416" ht="15" customHeight="1" s="7"/>
-    <row r="417" ht="15" customHeight="1" s="7"/>
-    <row r="418" ht="15" customHeight="1" s="7"/>
-    <row r="419" ht="15" customHeight="1" s="7"/>
-    <row r="420" ht="15" customHeight="1" s="7"/>
-    <row r="421" ht="15" customHeight="1" s="7"/>
-    <row r="422" ht="15" customHeight="1" s="7"/>
-    <row r="423" ht="15" customHeight="1" s="7"/>
-    <row r="424" ht="15" customHeight="1" s="7"/>
-    <row r="425" ht="15" customHeight="1" s="7"/>
-    <row r="426" ht="15" customHeight="1" s="7"/>
-    <row r="427" ht="15" customHeight="1" s="7"/>
-    <row r="428" ht="15" customHeight="1" s="7"/>
-    <row r="429" ht="15" customHeight="1" s="7"/>
-    <row r="430" ht="15" customHeight="1" s="7"/>
-    <row r="431" ht="15" customHeight="1" s="7"/>
-    <row r="432" ht="15" customHeight="1" s="7"/>
-    <row r="433" ht="15" customHeight="1" s="7"/>
-    <row r="434" ht="15" customHeight="1" s="7"/>
-    <row r="435" ht="15" customHeight="1" s="7"/>
-    <row r="436" ht="15" customHeight="1" s="7"/>
-    <row r="437" ht="15" customHeight="1" s="7"/>
-    <row r="438" ht="15" customHeight="1" s="7"/>
-    <row r="439" ht="15" customHeight="1" s="7"/>
-    <row r="440" ht="15" customHeight="1" s="7"/>
-    <row r="441" ht="15" customHeight="1" s="7"/>
-    <row r="442" ht="15" customHeight="1" s="7"/>
-    <row r="443" ht="15" customHeight="1" s="7"/>
-    <row r="444" ht="15" customHeight="1" s="7"/>
-    <row r="445" ht="15" customHeight="1" s="7"/>
-    <row r="446" ht="15" customHeight="1" s="7"/>
-    <row r="447" ht="15" customHeight="1" s="7"/>
-    <row r="448" ht="15" customHeight="1" s="7"/>
-    <row r="449" ht="15" customHeight="1" s="7"/>
-    <row r="450" ht="15" customHeight="1" s="7"/>
-    <row r="451" ht="15" customHeight="1" s="7"/>
-    <row r="452" ht="15" customHeight="1" s="7"/>
-    <row r="453" ht="15" customHeight="1" s="7"/>
-    <row r="454" ht="15" customHeight="1" s="7"/>
-    <row r="455" ht="15" customHeight="1" s="7"/>
-    <row r="456" ht="15" customHeight="1" s="7"/>
-    <row r="457" ht="15" customHeight="1" s="7"/>
-    <row r="458" ht="15" customHeight="1" s="7"/>
-    <row r="459" ht="15" customHeight="1" s="7"/>
-    <row r="460" ht="15" customHeight="1" s="7"/>
-    <row r="461" ht="15" customHeight="1" s="7"/>
-    <row r="462" ht="15" customHeight="1" s="7"/>
-    <row r="463" ht="15" customHeight="1" s="7"/>
-    <row r="464" ht="15" customHeight="1" s="7"/>
-    <row r="465" ht="15" customHeight="1" s="7"/>
-    <row r="466" ht="15" customHeight="1" s="7"/>
-    <row r="467" ht="15" customHeight="1" s="7"/>
-    <row r="468" ht="15" customHeight="1" s="7"/>
-    <row r="469" ht="15" customHeight="1" s="7"/>
-    <row r="470" ht="15" customHeight="1" s="7"/>
-    <row r="471" ht="15" customHeight="1" s="7"/>
-    <row r="472" ht="15" customHeight="1" s="7"/>
-    <row r="473" ht="15" customHeight="1" s="7"/>
-    <row r="474" ht="15" customHeight="1" s="7"/>
-    <row r="475" ht="15" customHeight="1" s="7"/>
-    <row r="476" ht="15" customHeight="1" s="7"/>
-    <row r="477" ht="15" customHeight="1" s="7"/>
-    <row r="478" ht="15" customHeight="1" s="7"/>
-    <row r="479" ht="15" customHeight="1" s="7"/>
-    <row r="480" ht="15" customHeight="1" s="7"/>
-    <row r="481" ht="15" customHeight="1" s="7"/>
-    <row r="482" ht="15" customHeight="1" s="7"/>
-    <row r="483" ht="15" customHeight="1" s="7"/>
-    <row r="484" ht="15" customHeight="1" s="7"/>
-    <row r="485" ht="15" customHeight="1" s="7"/>
-    <row r="486" ht="15" customHeight="1" s="7"/>
-    <row r="487" ht="15" customHeight="1" s="7"/>
-    <row r="488" ht="15" customHeight="1" s="7"/>
-    <row r="489" ht="15" customHeight="1" s="7"/>
-    <row r="490" ht="15" customHeight="1" s="7"/>
-    <row r="491" ht="15" customHeight="1" s="7"/>
-    <row r="492" ht="15" customHeight="1" s="7"/>
-    <row r="493" ht="15" customHeight="1" s="7"/>
-    <row r="494" ht="15" customHeight="1" s="7"/>
-    <row r="495" ht="15" customHeight="1" s="7"/>
-    <row r="496" ht="15" customHeight="1" s="7"/>
-    <row r="497" ht="15" customHeight="1" s="7"/>
-    <row r="498" ht="15" customHeight="1" s="7"/>
-    <row r="499" ht="15" customHeight="1" s="7"/>
-    <row r="500" ht="15" customHeight="1" s="7"/>
+          <t>[ENH] 495:476</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" s="6"/>
+    <row r="52" ht="15" customHeight="1" s="6"/>
+    <row r="53" ht="15" customHeight="1" s="6"/>
+    <row r="54" ht="15" customHeight="1" s="6"/>
+    <row r="55" ht="15" customHeight="1" s="6"/>
+    <row r="56" ht="15" customHeight="1" s="6"/>
+    <row r="57" ht="15" customHeight="1" s="6"/>
+    <row r="58" ht="15" customHeight="1" s="6"/>
+    <row r="59" ht="15" customHeight="1" s="6"/>
+    <row r="60" ht="15" customHeight="1" s="6"/>
+    <row r="61" ht="15" customHeight="1" s="6"/>
+    <row r="62" ht="15" customHeight="1" s="6"/>
+    <row r="63" ht="15" customHeight="1" s="6"/>
+    <row r="64" ht="15" customHeight="1" s="6"/>
+    <row r="65" ht="15" customHeight="1" s="6"/>
+    <row r="66" ht="15" customHeight="1" s="6"/>
+    <row r="67" ht="15" customHeight="1" s="6"/>
+    <row r="68" ht="15" customHeight="1" s="6"/>
+    <row r="69" ht="15" customHeight="1" s="6"/>
+    <row r="70" ht="15" customHeight="1" s="6"/>
+    <row r="71" ht="15" customHeight="1" s="6"/>
+    <row r="72" ht="15" customHeight="1" s="6"/>
+    <row r="73" ht="15" customHeight="1" s="6"/>
+    <row r="74" ht="15" customHeight="1" s="6"/>
+    <row r="75" ht="15" customHeight="1" s="6"/>
+    <row r="76" ht="15" customHeight="1" s="6"/>
+    <row r="77" ht="15" customHeight="1" s="6"/>
+    <row r="78" ht="15" customHeight="1" s="6"/>
+    <row r="79" ht="15" customHeight="1" s="6"/>
+    <row r="80" ht="15" customHeight="1" s="6"/>
+    <row r="81" ht="15" customHeight="1" s="6"/>
+    <row r="82" ht="15" customHeight="1" s="6"/>
+    <row r="83" ht="15" customHeight="1" s="6"/>
+    <row r="84" ht="15" customHeight="1" s="6"/>
+    <row r="85" ht="15" customHeight="1" s="6"/>
+    <row r="86" ht="15" customHeight="1" s="6"/>
+    <row r="87" ht="15" customHeight="1" s="6"/>
+    <row r="88" ht="15" customHeight="1" s="6"/>
+    <row r="89" ht="15" customHeight="1" s="6"/>
+    <row r="90" ht="15" customHeight="1" s="6"/>
+    <row r="91" ht="15" customHeight="1" s="6"/>
+    <row r="92" ht="15" customHeight="1" s="6"/>
+    <row r="93" ht="15" customHeight="1" s="6"/>
+    <row r="94" ht="15" customHeight="1" s="6"/>
+    <row r="95" ht="15" customHeight="1" s="6"/>
+    <row r="96" ht="15" customHeight="1" s="6"/>
+    <row r="97" ht="15" customHeight="1" s="6"/>
+    <row r="98" ht="15" customHeight="1" s="6"/>
+    <row r="99" ht="15" customHeight="1" s="6"/>
+    <row r="100" ht="15" customHeight="1" s="6"/>
+    <row r="101" ht="15" customHeight="1" s="6"/>
+    <row r="102" ht="15" customHeight="1" s="6"/>
+    <row r="103" ht="15" customHeight="1" s="6"/>
+    <row r="104" ht="15" customHeight="1" s="6"/>
+    <row r="105" ht="15" customHeight="1" s="6"/>
+    <row r="106" ht="15" customHeight="1" s="6"/>
+    <row r="107" ht="15" customHeight="1" s="6"/>
+    <row r="108" ht="15" customHeight="1" s="6"/>
+    <row r="109" ht="15" customHeight="1" s="6"/>
+    <row r="110" ht="15" customHeight="1" s="6"/>
+    <row r="111" ht="15" customHeight="1" s="6"/>
+    <row r="112" ht="15" customHeight="1" s="6"/>
+    <row r="113" ht="15" customHeight="1" s="6"/>
+    <row r="114" ht="15" customHeight="1" s="6"/>
+    <row r="115" ht="15" customHeight="1" s="6"/>
+    <row r="116" ht="15" customHeight="1" s="6"/>
+    <row r="117" ht="15" customHeight="1" s="6"/>
+    <row r="118" ht="15" customHeight="1" s="6"/>
+    <row r="119" ht="15" customHeight="1" s="6"/>
+    <row r="120" ht="15" customHeight="1" s="6"/>
+    <row r="121" ht="15" customHeight="1" s="6"/>
+    <row r="122" ht="15" customHeight="1" s="6"/>
+    <row r="123" ht="15" customHeight="1" s="6"/>
+    <row r="124" ht="15" customHeight="1" s="6"/>
+    <row r="125" ht="15" customHeight="1" s="6"/>
+    <row r="126" ht="15" customHeight="1" s="6"/>
+    <row r="127" ht="15" customHeight="1" s="6"/>
+    <row r="128" ht="15" customHeight="1" s="6"/>
+    <row r="129" ht="15" customHeight="1" s="6"/>
+    <row r="130" ht="15" customHeight="1" s="6"/>
+    <row r="131" ht="15" customHeight="1" s="6"/>
+    <row r="132" ht="15" customHeight="1" s="6"/>
+    <row r="133" ht="15" customHeight="1" s="6"/>
+    <row r="134" ht="15" customHeight="1" s="6"/>
+    <row r="135" ht="15" customHeight="1" s="6"/>
+    <row r="136" ht="15" customHeight="1" s="6"/>
+    <row r="137" ht="15" customHeight="1" s="6"/>
+    <row r="138" ht="15" customHeight="1" s="6"/>
+    <row r="139" ht="15" customHeight="1" s="6"/>
+    <row r="140" ht="15" customHeight="1" s="6"/>
+    <row r="141" ht="15" customHeight="1" s="6"/>
+    <row r="142" ht="15" customHeight="1" s="6"/>
+    <row r="143" ht="15" customHeight="1" s="6"/>
+    <row r="144" ht="15" customHeight="1" s="6"/>
+    <row r="145" ht="15" customHeight="1" s="6"/>
+    <row r="146" ht="15" customHeight="1" s="6"/>
+    <row r="147" ht="15" customHeight="1" s="6"/>
+    <row r="148" ht="15" customHeight="1" s="6"/>
+    <row r="149" ht="15" customHeight="1" s="6"/>
+    <row r="150" ht="15" customHeight="1" s="6"/>
+    <row r="151" ht="15" customHeight="1" s="6"/>
+    <row r="152" ht="15" customHeight="1" s="6"/>
+    <row r="153" ht="15" customHeight="1" s="6"/>
+    <row r="154" ht="15" customHeight="1" s="6"/>
+    <row r="155" ht="15" customHeight="1" s="6"/>
+    <row r="156" ht="15" customHeight="1" s="6"/>
+    <row r="157" ht="15" customHeight="1" s="6"/>
+    <row r="158" ht="15" customHeight="1" s="6"/>
+    <row r="159" ht="15" customHeight="1" s="6"/>
+    <row r="160" ht="15" customHeight="1" s="6"/>
+    <row r="161" ht="15" customHeight="1" s="6"/>
+    <row r="162" ht="15" customHeight="1" s="6"/>
+    <row r="163" ht="15" customHeight="1" s="6"/>
+    <row r="164" ht="15" customHeight="1" s="6"/>
+    <row r="165" ht="15" customHeight="1" s="6"/>
+    <row r="166" ht="15" customHeight="1" s="6"/>
+    <row r="167" ht="15" customHeight="1" s="6"/>
+    <row r="168" ht="15" customHeight="1" s="6"/>
+    <row r="169" ht="15" customHeight="1" s="6"/>
+    <row r="170" ht="15" customHeight="1" s="6"/>
+    <row r="171" ht="15" customHeight="1" s="6"/>
+    <row r="172" ht="15" customHeight="1" s="6"/>
+    <row r="173" ht="15" customHeight="1" s="6"/>
+    <row r="174" ht="15" customHeight="1" s="6"/>
+    <row r="175" ht="15" customHeight="1" s="6"/>
+    <row r="176" ht="15" customHeight="1" s="6"/>
+    <row r="177" ht="15" customHeight="1" s="6"/>
+    <row r="178" ht="15" customHeight="1" s="6"/>
+    <row r="179" ht="15" customHeight="1" s="6"/>
+    <row r="180" ht="15" customHeight="1" s="6"/>
+    <row r="181" ht="15" customHeight="1" s="6"/>
+    <row r="182" ht="15" customHeight="1" s="6"/>
+    <row r="183" ht="15" customHeight="1" s="6"/>
+    <row r="184" ht="15" customHeight="1" s="6"/>
+    <row r="185" ht="15" customHeight="1" s="6"/>
+    <row r="186" ht="15" customHeight="1" s="6"/>
+    <row r="187" ht="15" customHeight="1" s="6"/>
+    <row r="188" ht="15" customHeight="1" s="6"/>
+    <row r="189" ht="15" customHeight="1" s="6"/>
+    <row r="190" ht="15" customHeight="1" s="6"/>
+    <row r="191" ht="15" customHeight="1" s="6"/>
+    <row r="192" ht="15" customHeight="1" s="6"/>
+    <row r="193" ht="15" customHeight="1" s="6"/>
+    <row r="194" ht="15" customHeight="1" s="6"/>
+    <row r="195" ht="15" customHeight="1" s="6"/>
+    <row r="196" ht="15" customHeight="1" s="6"/>
+    <row r="197" ht="15" customHeight="1" s="6"/>
+    <row r="198" ht="15" customHeight="1" s="6"/>
+    <row r="199" ht="15" customHeight="1" s="6"/>
+    <row r="200" ht="15" customHeight="1" s="6"/>
+    <row r="201" ht="15" customHeight="1" s="6"/>
+    <row r="202" ht="15" customHeight="1" s="6"/>
+    <row r="203" ht="15" customHeight="1" s="6"/>
+    <row r="204" ht="15" customHeight="1" s="6"/>
+    <row r="205" ht="15" customHeight="1" s="6"/>
+    <row r="206" ht="15" customHeight="1" s="6"/>
+    <row r="207" ht="15" customHeight="1" s="6"/>
+    <row r="208" ht="15" customHeight="1" s="6"/>
+    <row r="209" ht="15" customHeight="1" s="6"/>
+    <row r="210" ht="15" customHeight="1" s="6"/>
+    <row r="211" ht="15" customHeight="1" s="6"/>
+    <row r="212" ht="15" customHeight="1" s="6"/>
+    <row r="213" ht="15" customHeight="1" s="6"/>
+    <row r="214" ht="15" customHeight="1" s="6"/>
+    <row r="215" ht="15" customHeight="1" s="6"/>
+    <row r="216" ht="15" customHeight="1" s="6"/>
+    <row r="217" ht="15" customHeight="1" s="6"/>
+    <row r="218" ht="15" customHeight="1" s="6"/>
+    <row r="219" ht="15" customHeight="1" s="6"/>
+    <row r="220" ht="15" customHeight="1" s="6"/>
+    <row r="221" ht="15" customHeight="1" s="6"/>
+    <row r="222" ht="15" customHeight="1" s="6"/>
+    <row r="223" ht="15" customHeight="1" s="6"/>
+    <row r="224" ht="15" customHeight="1" s="6"/>
+    <row r="225" ht="15" customHeight="1" s="6"/>
+    <row r="226" ht="15" customHeight="1" s="6"/>
+    <row r="227" ht="15" customHeight="1" s="6"/>
+    <row r="228" ht="15" customHeight="1" s="6"/>
+    <row r="229" ht="15" customHeight="1" s="6"/>
+    <row r="230" ht="15" customHeight="1" s="6"/>
+    <row r="231" ht="15" customHeight="1" s="6"/>
+    <row r="232" ht="15" customHeight="1" s="6"/>
+    <row r="233" ht="15" customHeight="1" s="6"/>
+    <row r="234" ht="15" customHeight="1" s="6"/>
+    <row r="235" ht="15" customHeight="1" s="6"/>
+    <row r="236" ht="15" customHeight="1" s="6"/>
+    <row r="237" ht="15" customHeight="1" s="6"/>
+    <row r="238" ht="15" customHeight="1" s="6"/>
+    <row r="239" ht="15" customHeight="1" s="6"/>
+    <row r="240" ht="15" customHeight="1" s="6"/>
+    <row r="241" ht="15" customHeight="1" s="6"/>
+    <row r="242" ht="15" customHeight="1" s="6"/>
+    <row r="243" ht="15" customHeight="1" s="6"/>
+    <row r="244" ht="15" customHeight="1" s="6"/>
+    <row r="245" ht="15" customHeight="1" s="6"/>
+    <row r="246" ht="15" customHeight="1" s="6"/>
+    <row r="247" ht="15" customHeight="1" s="6"/>
+    <row r="248" ht="15" customHeight="1" s="6"/>
+    <row r="249" ht="15" customHeight="1" s="6"/>
+    <row r="250" ht="15" customHeight="1" s="6"/>
+    <row r="251" ht="15" customHeight="1" s="6"/>
+    <row r="252" ht="15" customHeight="1" s="6"/>
+    <row r="253" ht="15" customHeight="1" s="6"/>
+    <row r="254" ht="15" customHeight="1" s="6"/>
+    <row r="255" ht="15" customHeight="1" s="6"/>
+    <row r="256" ht="15" customHeight="1" s="6"/>
+    <row r="257" ht="15" customHeight="1" s="6"/>
+    <row r="258" ht="15" customHeight="1" s="6"/>
+    <row r="259" ht="15" customHeight="1" s="6"/>
+    <row r="260" ht="15" customHeight="1" s="6"/>
+    <row r="261" ht="15" customHeight="1" s="6"/>
+    <row r="262" ht="15" customHeight="1" s="6"/>
+    <row r="263" ht="15" customHeight="1" s="6"/>
+    <row r="264" ht="15" customHeight="1" s="6"/>
+    <row r="265" ht="15" customHeight="1" s="6"/>
+    <row r="266" ht="15" customHeight="1" s="6"/>
+    <row r="267" ht="15" customHeight="1" s="6"/>
+    <row r="268" ht="15" customHeight="1" s="6"/>
+    <row r="269" ht="15" customHeight="1" s="6"/>
+    <row r="270" ht="15" customHeight="1" s="6"/>
+    <row r="271" ht="15" customHeight="1" s="6"/>
+    <row r="272" ht="15" customHeight="1" s="6"/>
+    <row r="273" ht="15" customHeight="1" s="6"/>
+    <row r="274" ht="15" customHeight="1" s="6"/>
+    <row r="275" ht="15" customHeight="1" s="6"/>
+    <row r="276" ht="15" customHeight="1" s="6"/>
+    <row r="277" ht="15" customHeight="1" s="6"/>
+    <row r="278" ht="15" customHeight="1" s="6"/>
+    <row r="279" ht="15" customHeight="1" s="6"/>
+    <row r="280" ht="15" customHeight="1" s="6"/>
+    <row r="281" ht="15" customHeight="1" s="6"/>
+    <row r="282" ht="15" customHeight="1" s="6"/>
+    <row r="283" ht="15" customHeight="1" s="6"/>
+    <row r="284" ht="15" customHeight="1" s="6"/>
+    <row r="285" ht="15" customHeight="1" s="6"/>
+    <row r="286" ht="15" customHeight="1" s="6"/>
+    <row r="287" ht="15" customHeight="1" s="6"/>
+    <row r="288" ht="15" customHeight="1" s="6"/>
+    <row r="289" ht="15" customHeight="1" s="6"/>
+    <row r="290" ht="15" customHeight="1" s="6"/>
+    <row r="291" ht="15" customHeight="1" s="6"/>
+    <row r="292" ht="15" customHeight="1" s="6"/>
+    <row r="293" ht="15" customHeight="1" s="6"/>
+    <row r="294" ht="15" customHeight="1" s="6"/>
+    <row r="295" ht="15" customHeight="1" s="6"/>
+    <row r="296" ht="15" customHeight="1" s="6"/>
+    <row r="297" ht="15" customHeight="1" s="6"/>
+    <row r="298" ht="15" customHeight="1" s="6"/>
+    <row r="299" ht="15" customHeight="1" s="6"/>
+    <row r="300" ht="15" customHeight="1" s="6"/>
+    <row r="301" ht="15" customHeight="1" s="6"/>
+    <row r="302" ht="15" customHeight="1" s="6"/>
+    <row r="303" ht="15" customHeight="1" s="6"/>
+    <row r="304" ht="15" customHeight="1" s="6"/>
+    <row r="305" ht="15" customHeight="1" s="6"/>
+    <row r="306" ht="15" customHeight="1" s="6"/>
+    <row r="307" ht="15" customHeight="1" s="6"/>
+    <row r="308" ht="15" customHeight="1" s="6"/>
+    <row r="309" ht="15" customHeight="1" s="6"/>
+    <row r="310" ht="15" customHeight="1" s="6"/>
+    <row r="311" ht="15" customHeight="1" s="6"/>
+    <row r="312" ht="15" customHeight="1" s="6"/>
+    <row r="313" ht="15" customHeight="1" s="6"/>
+    <row r="314" ht="15" customHeight="1" s="6"/>
+    <row r="315" ht="15" customHeight="1" s="6"/>
+    <row r="316" ht="15" customHeight="1" s="6"/>
+    <row r="317" ht="15" customHeight="1" s="6"/>
+    <row r="318" ht="15" customHeight="1" s="6"/>
+    <row r="319" ht="15" customHeight="1" s="6"/>
+    <row r="320" ht="15" customHeight="1" s="6"/>
+    <row r="321" ht="15" customHeight="1" s="6"/>
+    <row r="322" ht="15" customHeight="1" s="6"/>
+    <row r="323" ht="15" customHeight="1" s="6"/>
+    <row r="324" ht="15" customHeight="1" s="6"/>
+    <row r="325" ht="15" customHeight="1" s="6"/>
+    <row r="326" ht="15" customHeight="1" s="6"/>
+    <row r="327" ht="15" customHeight="1" s="6"/>
+    <row r="328" ht="15" customHeight="1" s="6"/>
+    <row r="329" ht="15" customHeight="1" s="6"/>
+    <row r="330" ht="15" customHeight="1" s="6"/>
+    <row r="331" ht="15" customHeight="1" s="6"/>
+    <row r="332" ht="15" customHeight="1" s="6"/>
+    <row r="333" ht="15" customHeight="1" s="6"/>
+    <row r="334" ht="15" customHeight="1" s="6"/>
+    <row r="335" ht="15" customHeight="1" s="6"/>
+    <row r="336" ht="15" customHeight="1" s="6"/>
+    <row r="337" ht="15" customHeight="1" s="6"/>
+    <row r="338" ht="15" customHeight="1" s="6"/>
+    <row r="339" ht="15" customHeight="1" s="6"/>
+    <row r="340" ht="15" customHeight="1" s="6"/>
+    <row r="341" ht="15" customHeight="1" s="6"/>
+    <row r="342" ht="15" customHeight="1" s="6"/>
+    <row r="343" ht="15" customHeight="1" s="6"/>
+    <row r="344" ht="15" customHeight="1" s="6"/>
+    <row r="345" ht="15" customHeight="1" s="6"/>
+    <row r="346" ht="15" customHeight="1" s="6"/>
+    <row r="347" ht="15" customHeight="1" s="6"/>
+    <row r="348" ht="15" customHeight="1" s="6"/>
+    <row r="349" ht="15" customHeight="1" s="6"/>
+    <row r="350" ht="15" customHeight="1" s="6"/>
+    <row r="351" ht="15" customHeight="1" s="6"/>
+    <row r="352" ht="15" customHeight="1" s="6"/>
+    <row r="353" ht="15" customHeight="1" s="6"/>
+    <row r="354" ht="15" customHeight="1" s="6"/>
+    <row r="355" ht="15" customHeight="1" s="6"/>
+    <row r="356" ht="15" customHeight="1" s="6"/>
+    <row r="357" ht="15" customHeight="1" s="6"/>
+    <row r="358" ht="15" customHeight="1" s="6"/>
+    <row r="359" ht="15" customHeight="1" s="6"/>
+    <row r="360" ht="15" customHeight="1" s="6"/>
+    <row r="361" ht="15" customHeight="1" s="6"/>
+    <row r="362" ht="15" customHeight="1" s="6"/>
+    <row r="363" ht="15" customHeight="1" s="6"/>
+    <row r="364" ht="15" customHeight="1" s="6"/>
+    <row r="365" ht="15" customHeight="1" s="6"/>
+    <row r="366" ht="15" customHeight="1" s="6"/>
+    <row r="367" ht="15" customHeight="1" s="6"/>
+    <row r="368" ht="15" customHeight="1" s="6"/>
+    <row r="369" ht="15" customHeight="1" s="6"/>
+    <row r="370" ht="15" customHeight="1" s="6"/>
+    <row r="371" ht="15" customHeight="1" s="6"/>
+    <row r="372" ht="15" customHeight="1" s="6"/>
+    <row r="373" ht="15" customHeight="1" s="6"/>
+    <row r="374" ht="15" customHeight="1" s="6"/>
+    <row r="375" ht="15" customHeight="1" s="6"/>
+    <row r="376" ht="15" customHeight="1" s="6"/>
+    <row r="377" ht="15" customHeight="1" s="6"/>
+    <row r="378" ht="15" customHeight="1" s="6"/>
+    <row r="379" ht="15" customHeight="1" s="6"/>
+    <row r="380" ht="15" customHeight="1" s="6"/>
+    <row r="381" ht="15" customHeight="1" s="6"/>
+    <row r="382" ht="15" customHeight="1" s="6"/>
+    <row r="383" ht="15" customHeight="1" s="6"/>
+    <row r="384" ht="15" customHeight="1" s="6"/>
+    <row r="385" ht="15" customHeight="1" s="6"/>
+    <row r="386" ht="15" customHeight="1" s="6"/>
+    <row r="387" ht="15" customHeight="1" s="6"/>
+    <row r="388" ht="15" customHeight="1" s="6"/>
+    <row r="389" ht="15" customHeight="1" s="6"/>
+    <row r="390" ht="15" customHeight="1" s="6"/>
+    <row r="391" ht="15" customHeight="1" s="6"/>
+    <row r="392" ht="15" customHeight="1" s="6"/>
+    <row r="393" ht="15" customHeight="1" s="6"/>
+    <row r="394" ht="15" customHeight="1" s="6"/>
+    <row r="395" ht="15" customHeight="1" s="6"/>
+    <row r="396" ht="15" customHeight="1" s="6"/>
+    <row r="397" ht="15" customHeight="1" s="6"/>
+    <row r="398" ht="15" customHeight="1" s="6"/>
+    <row r="399" ht="15" customHeight="1" s="6"/>
+    <row r="400" ht="15" customHeight="1" s="6"/>
+    <row r="401" ht="15" customHeight="1" s="6"/>
+    <row r="402" ht="15" customHeight="1" s="6"/>
+    <row r="403" ht="15" customHeight="1" s="6"/>
+    <row r="404" ht="15" customHeight="1" s="6"/>
+    <row r="405" ht="15" customHeight="1" s="6"/>
+    <row r="406" ht="15" customHeight="1" s="6"/>
+    <row r="407" ht="15" customHeight="1" s="6"/>
+    <row r="408" ht="15" customHeight="1" s="6"/>
+    <row r="409" ht="15" customHeight="1" s="6"/>
+    <row r="410" ht="15" customHeight="1" s="6"/>
+    <row r="411" ht="15" customHeight="1" s="6"/>
+    <row r="412" ht="15" customHeight="1" s="6"/>
+    <row r="413" ht="15" customHeight="1" s="6"/>
+    <row r="414" ht="15" customHeight="1" s="6"/>
+    <row r="415" ht="15" customHeight="1" s="6"/>
+    <row r="416" ht="15" customHeight="1" s="6"/>
+    <row r="417" ht="15" customHeight="1" s="6"/>
+    <row r="418" ht="15" customHeight="1" s="6"/>
+    <row r="419" ht="15" customHeight="1" s="6"/>
+    <row r="420" ht="15" customHeight="1" s="6"/>
+    <row r="421" ht="15" customHeight="1" s="6"/>
+    <row r="422" ht="15" customHeight="1" s="6"/>
+    <row r="423" ht="15" customHeight="1" s="6"/>
+    <row r="424" ht="15" customHeight="1" s="6"/>
+    <row r="425" ht="15" customHeight="1" s="6"/>
+    <row r="426" ht="15" customHeight="1" s="6"/>
+    <row r="427" ht="15" customHeight="1" s="6"/>
+    <row r="428" ht="15" customHeight="1" s="6"/>
+    <row r="429" ht="15" customHeight="1" s="6"/>
+    <row r="430" ht="15" customHeight="1" s="6"/>
+    <row r="431" ht="15" customHeight="1" s="6"/>
+    <row r="432" ht="15" customHeight="1" s="6"/>
+    <row r="433" ht="15" customHeight="1" s="6"/>
+    <row r="434" ht="15" customHeight="1" s="6"/>
+    <row r="435" ht="15" customHeight="1" s="6"/>
+    <row r="436" ht="15" customHeight="1" s="6"/>
+    <row r="437" ht="15" customHeight="1" s="6"/>
+    <row r="438" ht="15" customHeight="1" s="6"/>
+    <row r="439" ht="15" customHeight="1" s="6"/>
+    <row r="440" ht="15" customHeight="1" s="6"/>
+    <row r="441" ht="15" customHeight="1" s="6"/>
+    <row r="442" ht="15" customHeight="1" s="6"/>
+    <row r="443" ht="15" customHeight="1" s="6"/>
+    <row r="444" ht="15" customHeight="1" s="6"/>
+    <row r="445" ht="15" customHeight="1" s="6"/>
+    <row r="446" ht="15" customHeight="1" s="6"/>
+    <row r="447" ht="15" customHeight="1" s="6"/>
+    <row r="448" ht="15" customHeight="1" s="6"/>
+    <row r="449" ht="15" customHeight="1" s="6"/>
+    <row r="450" ht="15" customHeight="1" s="6"/>
+    <row r="451" ht="15" customHeight="1" s="6"/>
+    <row r="452" ht="15" customHeight="1" s="6"/>
+    <row r="453" ht="15" customHeight="1" s="6"/>
+    <row r="454" ht="15" customHeight="1" s="6"/>
+    <row r="455" ht="15" customHeight="1" s="6"/>
+    <row r="456" ht="15" customHeight="1" s="6"/>
+    <row r="457" ht="15" customHeight="1" s="6"/>
+    <row r="458" ht="15" customHeight="1" s="6"/>
+    <row r="459" ht="15" customHeight="1" s="6"/>
+    <row r="460" ht="15" customHeight="1" s="6"/>
+    <row r="461" ht="15" customHeight="1" s="6"/>
+    <row r="462" ht="15" customHeight="1" s="6"/>
+    <row r="463" ht="15" customHeight="1" s="6"/>
+    <row r="464" ht="15" customHeight="1" s="6"/>
+    <row r="465" ht="15" customHeight="1" s="6"/>
+    <row r="466" ht="15" customHeight="1" s="6"/>
+    <row r="467" ht="15" customHeight="1" s="6"/>
+    <row r="468" ht="15" customHeight="1" s="6"/>
+    <row r="469" ht="15" customHeight="1" s="6"/>
+    <row r="470" ht="15" customHeight="1" s="6"/>
+    <row r="471" ht="15" customHeight="1" s="6"/>
+    <row r="472" ht="15" customHeight="1" s="6"/>
+    <row r="473" ht="15" customHeight="1" s="6"/>
+    <row r="474" ht="15" customHeight="1" s="6"/>
+    <row r="475" ht="15" customHeight="1" s="6"/>
+    <row r="476" ht="15" customHeight="1" s="6"/>
+    <row r="477" ht="15" customHeight="1" s="6"/>
+    <row r="478" ht="15" customHeight="1" s="6"/>
+    <row r="479" ht="15" customHeight="1" s="6"/>
+    <row r="480" ht="15" customHeight="1" s="6"/>
+    <row r="481" ht="15" customHeight="1" s="6"/>
+    <row r="482" ht="15" customHeight="1" s="6"/>
+    <row r="483" ht="15" customHeight="1" s="6"/>
+    <row r="484" ht="15" customHeight="1" s="6"/>
+    <row r="485" ht="15" customHeight="1" s="6"/>
+    <row r="486" ht="15" customHeight="1" s="6"/>
+    <row r="487" ht="15" customHeight="1" s="6"/>
+    <row r="488" ht="15" customHeight="1" s="6"/>
+    <row r="489" ht="15" customHeight="1" s="6"/>
+    <row r="490" ht="15" customHeight="1" s="6"/>
+    <row r="491" ht="15" customHeight="1" s="6"/>
+    <row r="492" ht="15" customHeight="1" s="6"/>
+    <row r="493" ht="15" customHeight="1" s="6"/>
+    <row r="494" ht="15" customHeight="1" s="6"/>
+    <row r="495" ht="15" customHeight="1" s="6"/>
+    <row r="496" ht="15" customHeight="1" s="6"/>
+    <row r="497" ht="15" customHeight="1" s="6"/>
+    <row r="498" ht="15" customHeight="1" s="6"/>
+    <row r="499" ht="15" customHeight="1" s="6"/>
+    <row r="500" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
